--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13698700</v>
+      </c>
+      <c r="E8" s="3">
         <v>15025000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15303000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15474900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14658100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14765700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15215300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15315900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14349500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14411500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14650400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14421000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13524200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13457300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11134500</v>
+      </c>
+      <c r="E9" s="3">
         <v>12196600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12359600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12495700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11903800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11994000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12311500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12399200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11673900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11712100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11856800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11661500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10990000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10885400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2564200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2828400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2943400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2979200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2754300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2771700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2903800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2916700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2675600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2699400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2793600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2759500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2534200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2571900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,19 +1055,22 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E15" s="3">
         <v>10300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8600</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1061,8 +1084,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13638400</v>
+      </c>
+      <c r="E17" s="3">
         <v>14472500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14634700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14754300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14128500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14313800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14587100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14628200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13863600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13879200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14031100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13863100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13088200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12964900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E18" s="3">
         <v>552500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>668300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>720600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>529600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>451900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>628200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>687700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>485900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>532300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>619300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>557900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>436000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>492400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-19000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>34100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-22900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>227200</v>
+      </c>
+      <c r="E21" s="3">
         <v>723700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>836700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>942000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>686900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>629000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>795200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>866500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>680800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>711300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>790500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>792800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>657400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>729600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E22" s="3">
         <v>62200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>67500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>72400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>71700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>69700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>69600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>71600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>122500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>68900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>64400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>74500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>79300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>69800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E23" s="3">
         <v>476500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>581900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>682300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>431000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>354600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>538000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>593200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>364900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>451700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>546500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>483500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>359800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>422500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E24" s="3">
         <v>93100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>128100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>143900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>75300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>107000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>142700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>236800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>178800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>178400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>121500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>147300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>383400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>453800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>538400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>439800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>279300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>431000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>450400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>330100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>214900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>367600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>305200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>238300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>275200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>383400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>453800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>538400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>439800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>279300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>431000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>450400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>330100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>214900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>367600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>305200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>238300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>275200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,40 +1692,43 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-11900</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1500</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>69200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E32" s="3">
         <v>13700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>19000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-34100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>22900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>383400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>453800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>535800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>440100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>267400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>431000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>448900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>330100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>284100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>367600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>305200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>238300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>275200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>383400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>453800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>535800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>440100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>267400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>431000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>448900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>330100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>284100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>367600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>305200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>238300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>275200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2240800</v>
+      </c>
+      <c r="E41" s="3">
         <v>524600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>455500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>513500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>521600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>744800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>790300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>552300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>901600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>961100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>909200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>869500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>855100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>847300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3684600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4383300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4406900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4201400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4378100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4170400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4281800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4137800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4323500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3953600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4333700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4029200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4386800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3990000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3697500</v>
+      </c>
+      <c r="E44" s="3">
         <v>3508300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3386800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3216000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3344700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3310300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3354500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3125400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3259800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3174000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3180600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2995600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2944300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3031500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>234900</v>
+      </c>
+      <c r="E45" s="3">
         <v>245500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>235000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>210600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>211200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>212300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>215700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>187900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>231100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>183400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>173500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>139200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>139300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>142300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9857800</v>
+      </c>
+      <c r="E46" s="3">
         <v>8661600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8484200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8141500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8455500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8437800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8642300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8003500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8715900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8272200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8597000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8033400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8325600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8011200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5225200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5224900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5119600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4501700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4377100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4375600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4466900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4521700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4392200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4366300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4388300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4377300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4271700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4331100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4665300</v>
+      </c>
+      <c r="E49" s="3">
         <v>4879100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4697000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4753500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4812500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4775900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4881500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4935300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5122300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5057400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5023300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4953600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4853900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4809300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>684100</v>
+      </c>
+      <c r="E52" s="3">
         <v>606400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>655800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>569800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>555700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>604900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>551400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>610000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>398900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>523600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>410000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>392300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>469800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>478400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20432300</v>
+      </c>
+      <c r="E54" s="3">
         <v>19372000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18956600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17966500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18200800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18194200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18542100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18070400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18629100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18219400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18418600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17756700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17920900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17630100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3969000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4159600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4247300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4314600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4293500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4230200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4217800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4136500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4235900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3745800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3951200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3971100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3849700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3549600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>831900</v>
+      </c>
+      <c r="E58" s="3">
         <v>793700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>57800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>543000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>792100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>787400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>786500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>294700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>541300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>538200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>534000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>551400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1824100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1978700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1796400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1747300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1663700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1727800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1635700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1665800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1515700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1695800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1650900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1590800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1328800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1471200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6625000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6932000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6101500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6103200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6750200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6641000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6588700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6046200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5983000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6140300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6095900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5729800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5052300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10023300</v>
+      </c>
+      <c r="E61" s="3">
         <v>8092900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8637700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8122100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8134500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8019800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7914300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6956600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8218700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7712400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8426400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7660900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8026600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8313700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1723600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1785600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1729600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1203300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1169200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1221200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1311300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1980400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1977100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2221800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1533600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1535500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1753700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1709200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18403400</v>
+      </c>
+      <c r="E66" s="3">
         <v>16844500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16501800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15463900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15838900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16026500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15903500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15563400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16277900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15950800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16183300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15375100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15590400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15154000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11407000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11639700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11486800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11229700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10893600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10654700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10592500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10348600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9850700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9708300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9638400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9447800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9317400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9256100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2028900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2527500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2454700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2502600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2361900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2167600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2638600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2507000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2351200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2268600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2235300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2381500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2330500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2476000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>383400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>453800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>535800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>440100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>267400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>431000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>448900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>330100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>284100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>367600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>305200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>238300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>275200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E83" s="3">
         <v>185000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>187400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>187300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>184200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>204800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>187600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>201800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>193400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>190700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>179700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>234700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>218300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>237300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E89" s="3">
         <v>582900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>171600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1046000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>447400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>646600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>271100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1034400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>191000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>850400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>82800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1156900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>477500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>351000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-210500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-217700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-175700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-309500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-159100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-119500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-104300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-315200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-114000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-122300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-136300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-272600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-541900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-132300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-281100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-246600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-163000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-362800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-117400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-99600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-354400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-157000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-267800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-134500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-279300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-120600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-136100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-229000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-199100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-200000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-200400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-195800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-192000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-187200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-187400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-187800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-172100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-174900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-176800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-178400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-170100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1535800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-255800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>62700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-897500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-429100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-579100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>68400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-998500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-102100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-382800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>72900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-912700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-225200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-92100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E101" s="3">
         <v>11100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>18600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>54700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-66200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-40700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1713100</v>
+      </c>
+      <c r="E102" s="3">
         <v>57100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-347200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-56400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>237500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-331300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-66800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>204700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>87400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8866600</v>
+      </c>
+      <c r="E8" s="3">
         <v>13698700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15025000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15303000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15474900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14658100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14765700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15215300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15315900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14349500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14411500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14650400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14421000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13524200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13457300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7300900</v>
+      </c>
+      <c r="E9" s="3">
         <v>11134500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12196600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12359600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12495700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11903800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11994000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12311500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12399200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11673900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11712100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11856800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11661500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10990000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10885400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1565700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2564200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2828400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2943400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2979200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2754300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2771700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2903800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2916700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2675600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2699400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2793600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2759500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2534200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2571900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,22 +1078,25 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E15" s="3">
         <v>8700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8600</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1087,8 +1110,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9398100</v>
+      </c>
+      <c r="E17" s="3">
         <v>13638400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14472500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14634700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14754300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14128500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14313800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14587100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14628200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13863600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13879200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14031100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13863100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13088200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12964900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-531500</v>
+      </c>
+      <c r="E18" s="3">
         <v>60300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>552500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>668300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>720600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>529600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>451900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>628200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>687700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>485900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>532300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>619300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>557900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>436000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>492400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-19200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>34100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-26900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-324800</v>
+      </c>
+      <c r="E21" s="3">
         <v>227200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>723700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>836700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>942000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>686900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>629000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>795200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>866500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>680800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>711300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>790500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>792800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>657400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>729600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E22" s="3">
         <v>69800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>67500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>72400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>71700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>69700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>69600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>122500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>68900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>64400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>74500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>79300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>69800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-736200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>476500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>581900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>682300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>431000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>354600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>538000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>593200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>364900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>451700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>546500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>483500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>359800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>422500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-25500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>93100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>128100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>143900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>75300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>107000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>142700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>236800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>178800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>178400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>121500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>147300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-618400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>383400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>453800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>538400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>439800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>279300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>431000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>450400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>330100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>214900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>367600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>305200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>238300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>275200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-618400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>383400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>453800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>538400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>439800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>279300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>431000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>450400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>330100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>214900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>367600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>305200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>238300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>275200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,32 +1767,32 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-11900</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1500</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>69200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E32" s="3">
         <v>19200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-34100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>26900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-618400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>383400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>453800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>535800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>440100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>267400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>431000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>448900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>330100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>284100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>367600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>305200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>238300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>275200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-618400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>383400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>453800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>535800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>440100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>267400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>431000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>448900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>330100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>284100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>367600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>305200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>238300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>275200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6059400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2240800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>524600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>455500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>513500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>521600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>744800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>790300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>552300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>901600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>961100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>909200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>869500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>855100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>847300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3001600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3684600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4383300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4406900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4201400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4378100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4170400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4281800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4137800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4323500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3953600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4333700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4029200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4386800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3990000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3095100</v>
+      </c>
+      <c r="E44" s="3">
         <v>3697500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3508300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3386800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3216000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3344700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3310300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3354500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3125400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3259800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3174000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3180600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2995600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2944300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3031500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>192200</v>
+      </c>
+      <c r="E45" s="3">
         <v>234900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>245500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>235000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>210600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>211200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>212300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>215700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>187900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>231100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>183400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>173500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>139200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>139300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>142300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12348200</v>
+      </c>
+      <c r="E46" s="3">
         <v>9857800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8661600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8484200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8141500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8455500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8437800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8642300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8003500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8715900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8272200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8597000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8033400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8325600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8011200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5062200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5225200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5224900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5119600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4501700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4377100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4375600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4466900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4521700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4392200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4366300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4388300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4377300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4271700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4331100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4512600</v>
+      </c>
+      <c r="E49" s="3">
         <v>4665300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4879100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4697000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4753500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4812500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4775900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4881500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4935300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5122300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5057400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5023300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4953600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4853900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4809300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>705200</v>
+      </c>
+      <c r="E52" s="3">
         <v>684100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>606400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>655800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>569800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>555700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>604900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>551400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>610000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>398900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>523600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>410000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>392300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>469800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>478400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22628300</v>
+      </c>
+      <c r="E54" s="3">
         <v>20432300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19372000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18956600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17966500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18200800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18194200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18542100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18070400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18629100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18219400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18418600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17756700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17920900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17630100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3447100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3969000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4159600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4247300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4314600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4293500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4230200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4217800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4136500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4235900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3745800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3951200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3971100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3849700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3549600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1544400</v>
+      </c>
+      <c r="E58" s="3">
         <v>831900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>793700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>57800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>543000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>792100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>787400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>786500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>294700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>541300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>538200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>534000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>551400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1726400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1824100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1978700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1796400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1747300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1663700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1727800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1635700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1665800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1515700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1695800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1650900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1590800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1328800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1471200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6717900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6625000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6932000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6101500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6103200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6500200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6750200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6641000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6588700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6046200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5983000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6140300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6095900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5729800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5052300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12902500</v>
+      </c>
+      <c r="E61" s="3">
         <v>10023300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8092900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8637700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8122100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8134500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8019800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7914300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6956600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8218700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7712400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8426400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7660900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8026600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8313700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1815100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1723600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1785600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1729600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1203300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1169200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1221200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1311300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1980400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1977100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2221800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1533600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1535500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1753700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1709200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21469700</v>
+      </c>
+      <c r="E66" s="3">
         <v>18403400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16844500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16501800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15463900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15838900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16026500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15903500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15563400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16277900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15950800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16183300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15375100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15590400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15154000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10563000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11407000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11639700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11486800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11229700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10893600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10654700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10592500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10348600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9850700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9708300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9638400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9447800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9317400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9256100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1158600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2028900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2527500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2454700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2502600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2361900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2167600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2638600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2507000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2351200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2268600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2235300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2381500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2330500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2476000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-618400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>383400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>453800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>535800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>440100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>267400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>431000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>448900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>330100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>284100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>367600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>305200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>238300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>275200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>247200</v>
+      </c>
+      <c r="E83" s="3">
         <v>186200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>185000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>187400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>187300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>184200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>204800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>187600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>201800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>193400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>190700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>179700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>234700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>218300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>237300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>540200</v>
+      </c>
+      <c r="E89" s="3">
         <v>324000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>582900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>171600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1046000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>447400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>646600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>271100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1034400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>191000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>850400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>82800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1156900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>477500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>351000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-210500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-217700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-175700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-309500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-159100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-119500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-104300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-315200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-114000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-122300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-136300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-272600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-541900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-132300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-281100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-246600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-163000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-362800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-117400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-99600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-354400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-157000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-267800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-134500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-279300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-120600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-136100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-228300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-229000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-199100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-200000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-200400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-195800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-192000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-187200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-187400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-187800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-172100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-174900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-176800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-178400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-170100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3377100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1535800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-255800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>62700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-897500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-429100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-579100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>68400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-998500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-102100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-382800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>72900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-912700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-225200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-92100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>18600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>54700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-40700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3811000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1713100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>57100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-347200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-56400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>237500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-331300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-66800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>204700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>87400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11777400</v>
+      </c>
+      <c r="E8" s="3">
         <v>8866600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13698700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15025000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15303000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15474900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14658100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14765700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15215300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15315900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14349500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14411500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14650400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14421000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13524200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13457300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9557500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7300900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11134500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12196600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12359600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12495700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11903800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11994000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12311500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12399200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11673900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11712100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11856800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11661500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10990000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10885400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2219900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1565700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2564200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2828400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2943400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2979200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2754300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2771700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2903800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2916700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2675600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2699400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2793600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2759500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2534200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2571900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>259100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,25 +1101,28 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
         <v>10700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8600</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9398100</v>
+        <v>11357800</v>
       </c>
       <c r="E17" s="3">
+        <v>9454000</v>
+      </c>
+      <c r="F17" s="3">
         <v>13638400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14472500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14634700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14754300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14128500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14313800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14587100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14628200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13863600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13879200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14031100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13863100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13088200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12964900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-531500</v>
+        <v>419600</v>
       </c>
       <c r="E18" s="3">
+        <v>-587400</v>
+      </c>
+      <c r="F18" s="3">
         <v>60300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>552500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>668300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>720600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>529600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>451900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>628200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>687700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>485900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>532300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>619300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>557900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>436000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>492400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-40400</v>
+        <v>-20700</v>
       </c>
       <c r="E20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-19200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>34100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>579400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-324800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>227200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>723700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>836700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>942000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>686900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>629000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>795200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>866500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>680800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>711300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>790500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>792800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>657400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>729600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E22" s="3">
         <v>164300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>69800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>67500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>72400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>71700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>69700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>69600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>71600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>122500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>68900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>64400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>74500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>79300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>69800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>258700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-736200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>476500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>581900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>682300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>431000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>354600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>538000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>593200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>364900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>451700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>546500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>483500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>359800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>422500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-117800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-25500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>93100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>128100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>143900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>75300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>107000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>142700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>236800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>178800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>178400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>121500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>147300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-618400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>383400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>453800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>538400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>439800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>279300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>431000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>450400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>330100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>214900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>367600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>305200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>238300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>275200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-618400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>383400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>453800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>538400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>439800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>279300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>431000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>450400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>330100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>214900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>367600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>305200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>238300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>275200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,13 +1814,16 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1770,32 +1831,32 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-2600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-11900</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1500</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>69200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>40400</v>
+        <v>20700</v>
       </c>
       <c r="E32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F32" s="3">
         <v>19200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-34100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-618400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>383400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>453800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>535800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>440100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>267400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>431000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>448900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>330100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>284100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>367600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>305200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>238300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>275200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-618400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>383400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>453800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>535800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>440100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>267400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>431000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>448900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>330100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>284100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>367600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>305200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>238300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>275200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5985500</v>
+      </c>
+      <c r="E41" s="3">
         <v>6059400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2240800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>524600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>455500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>513500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>521600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>744800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>790300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>552300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>901600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>961100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>909200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>869500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>855100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>847300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3115800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3001600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3684600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4383300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4406900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4201400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4378100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4170400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4281800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4137800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4323500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3953600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4333700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4029200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4386800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3990000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3134700</v>
+      </c>
+      <c r="E44" s="3">
         <v>3095100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3697500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3508300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3386800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3216000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3344700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3310300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3354500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3125400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3259800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3174000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3180600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2995600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2944300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3031500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>197100</v>
+      </c>
+      <c r="E45" s="3">
         <v>192200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>234900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>245500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>235000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>210600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>211200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>212300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>215700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>187900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>231100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>183400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>173500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>139200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>139300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>142300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12433100</v>
+      </c>
+      <c r="E46" s="3">
         <v>12348200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9857800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8661600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8484200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8141500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8455500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8437800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8642300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8003500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8715900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8272200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8597000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8033400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8325600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8011200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5025900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5062200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5225200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5224900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5119600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4501700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4377100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4375600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4466900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4521700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4392200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4366300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4388300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4377300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4271700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4331100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4570800</v>
+      </c>
+      <c r="E49" s="3">
         <v>4512600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4665300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4879100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4697000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4753500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4812500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4775900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4881500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4935300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5122300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5057400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5023300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4953600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4853900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4809300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>711800</v>
+      </c>
+      <c r="E52" s="3">
         <v>705200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>684100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>606400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>655800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>569800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>555700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>604900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>551400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>610000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>398900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>523600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>410000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>392300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>469800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>478400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22741600</v>
+      </c>
+      <c r="E54" s="3">
         <v>22628300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20432300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19372000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18956600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17966500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18200800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18194200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18542100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18070400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18629100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18219400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18418600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17756700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17920900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17630100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4035300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3447100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3969000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4159600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4247300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4314600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4293500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4230200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4217800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4136500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4235900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3745800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3951200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3971100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3849700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3549600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1326000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1544400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>831900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>793700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>57800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>543000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>792100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>787400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>786500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>294700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>541300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>538200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>534000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>551400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1806700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1726400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1824100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1978700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1796400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1747300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1663700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1727800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1635700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1665800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1515700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1695800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1650900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1590800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1328800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1471200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7168100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6717900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6625000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6932000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6101500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6103200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6500200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6750200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6641000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6588700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6046200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5983000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6140300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6095900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5729800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5052300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12422800</v>
+      </c>
+      <c r="E61" s="3">
         <v>12902500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10023300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8092900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8637700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8122100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8134500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8019800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7914300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6956600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8218700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7712400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8426400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7660900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8026600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8313700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1816700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1815100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1723600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1785600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1729600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1203300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1169200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1221200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1311300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1980400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1977100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2221800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1533600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1535500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1753700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1709200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21441500</v>
+      </c>
+      <c r="E66" s="3">
         <v>21469700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18403400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16844500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16501800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15463900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15838900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16026500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15903500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15563400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16277900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15950800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16183300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15375100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15590400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15154000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10546600</v>
+      </c>
+      <c r="E72" s="3">
         <v>10563000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11407000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11639700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11486800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11229700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10893600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10654700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10592500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10348600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9850700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9708300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9638400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9447800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9317400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9256100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1158600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2028900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2527500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2454700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2502600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2361900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2167600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2638600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2507000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2351200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2268600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2235300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2381500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2330500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2476000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-618400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>383400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>453800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>535800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>440100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>267400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>431000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>448900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>330100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>284100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>367600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>305200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>238300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>275200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E83" s="3">
         <v>247200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>186200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>185000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>187400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>187300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>184200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>204800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>187600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>201800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>193400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>190700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>179700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>234700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>218300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>237300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>930900</v>
+      </c>
+      <c r="E89" s="3">
         <v>540200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>324000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>582900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>171600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1046000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>447400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>646600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>271100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1034400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>191000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>850400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>82800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1156900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>477500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>351000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-116600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-210500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-217700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-175700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-309500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-159100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-119500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-104300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-315200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-114000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-122300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-136300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-272600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-541900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-96300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-132300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-281100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-246600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-163000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-362800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-117400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-99600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-354400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-157000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-267800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-134500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-279300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-120600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-136100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-228700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-228300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-229000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-199100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-200000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-200400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-195800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-192000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-187200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-187400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-187800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-172100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-174900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-176800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-178400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-170100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-950800</v>
+      </c>
+      <c r="E100" s="3">
         <v>3377100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1535800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-255800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>62700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-897500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-429100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-579100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>68400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-998500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-102100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-382800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>72900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-912700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-225200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-92100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>18600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>54700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-66200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-40700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="E102" s="3">
         <v>3811000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1713100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>57100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-347200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-56400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>237500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-331300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-66800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>204700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>87400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11559000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11777400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8866600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13698700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15025000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15303000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15474900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14658100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14765700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15215300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15315900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14349500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14411500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14650400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14421000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13524200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13457300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9460500</v>
+      </c>
+      <c r="E9" s="3">
         <v>9557500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7300900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11134500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12196600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12359600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12495700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11903800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11994000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12311500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12399200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11673900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11712100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11856800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11661500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10990000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10885400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2098500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2219900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1565700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2564200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2828400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2943400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2979200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2754300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2771700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2903800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2916700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2675600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2699400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2793600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2759500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2534200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2571900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,19 +1064,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>259100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1074,8 +1093,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1104,28 +1123,31 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>10700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8600</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1139,8 +1161,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11346900</v>
+      </c>
+      <c r="E17" s="3">
         <v>11357800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9454000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13638400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14472500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14634700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14754300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14128500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14313800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14587100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14628200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13863600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13879200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14031100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13863100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13088200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12964900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E18" s="3">
         <v>419600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-587400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>60300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>552500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>668300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>720600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>529600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>451900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>628200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>687700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>485900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>532300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>619300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>557900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>436000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>492400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>15500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-13700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>34100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-22900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>412400</v>
+      </c>
+      <c r="E21" s="3">
         <v>579400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-324800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>227200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>723700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>836700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>942000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>686900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>629000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>795200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>866500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>680800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>711300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>790500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>792800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>657400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>729600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E22" s="3">
         <v>140200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>164300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>69800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>62200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>67500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>72400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>71700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>69700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>69600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>71600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>122500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>68900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>64400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>74500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>79300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>69800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E23" s="3">
         <v>258700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-736200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>476500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>581900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>682300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>431000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>354600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>538000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>593200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>364900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>451700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>546500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>483500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>359800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>422500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E24" s="3">
         <v>41800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-117800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-25500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>93100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>128100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>143900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>107000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>142700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>236800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>178800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>178400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>121500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>147300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E26" s="3">
         <v>216900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-618400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>383400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>453800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>538400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>439800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>279300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>431000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>450400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>330100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>214900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>367600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>305200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>238300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>275200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E27" s="3">
         <v>216900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-618400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>383400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>453800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>538400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>439800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>279300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>431000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>450400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>330100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>214900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>367600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>305200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>238300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>275200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,16 +1874,19 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1834,32 +1894,32 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-2600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-11900</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1500</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>69200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E32" s="3">
         <v>20700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-15500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>13700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-34100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>22900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E33" s="3">
         <v>216900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-618400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>383400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>453800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>535800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>440100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>267400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>431000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>448900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>330100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>284100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>367600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>305200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>238300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>275200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E35" s="3">
         <v>216900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-618400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>383400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>453800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>535800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>440100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>267400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>431000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>448900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>330100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>284100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>367600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>305200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>238300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>275200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5767000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5985500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6059400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2240800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>524600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>455500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>513500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>521600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>744800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>790300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>552300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>901600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>961100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>909200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>869500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>855100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>847300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3115800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3001600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3684600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4383300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4406900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4201400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4378100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4170400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4281800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4137800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4323500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3953600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4333700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4029200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4386800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3990000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3100500</v>
+      </c>
+      <c r="E44" s="3">
         <v>3134700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3095100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3697500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3508300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3386800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3216000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3344700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3310300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3354500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3125400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3259800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3174000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3180600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2995600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2944300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3031500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E45" s="3">
         <v>197100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>192200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>234900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>245500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>235000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>210600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>211200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>212300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>215700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>187900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>231100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>183400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>173500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>139200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>139300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>142300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11991400</v>
+      </c>
+      <c r="E46" s="3">
         <v>12433100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12348200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9857800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8661600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8484200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8141500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8455500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8437800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8642300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8003500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8715900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8272200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8597000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8033400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8325600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8011200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5018400</v>
+      </c>
+      <c r="E48" s="3">
         <v>5025900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5062200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5225200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5224900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5119600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4501700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4377100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4375600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4466900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4521700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4392200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4366300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4388300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4377300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4271700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4331100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4728300</v>
+      </c>
+      <c r="E49" s="3">
         <v>4570800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4512600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4665300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4879100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4697000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4753500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4812500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4775900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4881500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4935300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5122300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5057400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5023300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4953600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4853900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4809300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>751700</v>
+      </c>
+      <c r="E52" s="3">
         <v>711800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>705200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>684100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>606400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>655800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>569800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>555700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>604900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>551400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>610000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>398900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>523600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>410000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>392300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>469800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>478400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22489900</v>
+      </c>
+      <c r="E54" s="3">
         <v>22741600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22628300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20432300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19372000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18956600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17966500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18200800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18194200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18542100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18070400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18629100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18219400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18418600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17756700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17920900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17630100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3554600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4035300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3447100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3969000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4159600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4247300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4314600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4293500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4230200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4217800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4136500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4235900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3745800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3951200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3971100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3849700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3549600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1374900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1326000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1544400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>831900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>793700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>57800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>543000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>792100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>787400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>786500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>294700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>541300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>538200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>534000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>551400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1787100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1806700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1726400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1824100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1978700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1796400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1747300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1663700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1727800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1635700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1665800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1515700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1695800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1650900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1590800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1328800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1471200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6716500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7168100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6717900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6625000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6932000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6101500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6103200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6500200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6750200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6641000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6588700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6046200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5983000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6140300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6095900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5729800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5052300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12463300</v>
+      </c>
+      <c r="E61" s="3">
         <v>12422800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12902500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10023300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8092900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8637700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8122100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8134500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8019800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7914300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6956600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8218700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7712400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8426400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7660900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8026600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8313700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1847300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1816700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1815100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1723600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1785600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1729600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1203300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1169200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1221200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1311300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1980400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1977100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2221800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1533600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1535500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1753700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1709200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21063100</v>
+      </c>
+      <c r="E66" s="3">
         <v>21441500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21469700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18403400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16844500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16501800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15463900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15838900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16026500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15903500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15563400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16277900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15950800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16183300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15375100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15590400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15154000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10383500</v>
+      </c>
+      <c r="E72" s="3">
         <v>10546600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10563000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11407000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11639700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11486800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11229700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10893600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10654700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10592500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10348600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9850700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9708300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9638400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9447800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9317400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9256100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1426800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1158600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2028900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2527500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2454700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2502600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2361900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2167600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2638600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2507000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2351200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2268600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2235300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2381500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2330500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2476000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E81" s="3">
         <v>216900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-618400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>383400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>453800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>535800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>440100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>267400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>431000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>448900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>330100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>284100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>367600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>305200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>238300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>275200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>184800</v>
+      </c>
+      <c r="E83" s="3">
         <v>180500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>247200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>186200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>185000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>187400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>187300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>184200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>204800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>187600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>201800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>193400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>190700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>179700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>234700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>218300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>237300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E89" s="3">
         <v>930900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>540200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>324000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>582900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>171600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1046000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>447400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>646600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>271100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1034400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>191000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>850400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>82800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1156900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>477500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>351000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-88400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-75500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-116600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-210500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-217700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-175700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-309500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-159100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-119500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-104300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-315200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-114000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-122300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-136300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-272600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-541900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-82900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-96300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-132300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-281100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-246600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-163000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-362800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-117400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-354400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-157000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-267800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-134500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-279300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-120600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-136100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-230000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-228700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-228300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-229000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-199100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-200000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-200400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-195800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-192000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-187200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-187400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-187800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-172100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-174900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-176800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-178400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-170100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-205200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-950800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3377100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1535800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-255800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>62700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-897500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-429100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-579100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>68400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-998500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-102100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-382800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>72900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-912700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-225200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-92100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E101" s="3">
         <v>17100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>18600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>54700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-66200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-40700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-85700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3811000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1713100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-347200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-56400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>237500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-331300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-66800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>204700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>87400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11824600</v>
+      </c>
+      <c r="E8" s="3">
         <v>11559000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11777400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8866600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13698700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15025000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15303000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15474900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14658100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14765700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15215300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15315900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14349500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14411500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14650400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14421000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13524200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13457300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9701900</v>
+      </c>
+      <c r="E9" s="3">
         <v>9460500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9557500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7300900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11134500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12196600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12359600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12495700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11903800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11994000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12311500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12399200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11673900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11712100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11856800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11661500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10990000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10885400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2122700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2098500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2219900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1565700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2564200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2828400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2943400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2979200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2754300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2771700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2903800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2916700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2675600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2699400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2793600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2759500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2534200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2571900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,11 +1098,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>259100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1096,8 +1116,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1137,20 +1160,20 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
         <v>10700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8600</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1164,8 +1187,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11588700</v>
+      </c>
+      <c r="E17" s="3">
         <v>11346900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11357800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9454000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13638400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14472500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14634700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14754300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14128500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14313800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14587100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14628200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13863600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13879200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14031100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13863100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13088200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12964900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E18" s="3">
         <v>212100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>419600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-587400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>60300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>552500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>668300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>720600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>529600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>451900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>628200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>687700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>485900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>532300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>619300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>557900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>436000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>492400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E20" s="3">
         <v>15500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-22900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>425800</v>
+      </c>
+      <c r="E21" s="3">
         <v>412400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>579400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-324800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>227200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>723700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>836700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>942000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>686900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>629000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>795200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>866500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>680800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>711300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>790500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>792800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>657400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>729600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E22" s="3">
         <v>146500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>140200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>164300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>69800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>62200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>67500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>72400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>69700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>69600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>71600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>122500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>68900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>64400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>74500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>79300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>69800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E23" s="3">
         <v>81100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>258700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-736200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>476500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>581900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>682300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>431000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>354600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>538000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>593200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>364900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>451700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>546500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>483500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>359800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>422500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E24" s="3">
         <v>13800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-117800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-25500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>93100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>128100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>143900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>75300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>107000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>142700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>236800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>178800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>178400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>121500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>147300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E26" s="3">
         <v>67300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>216900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-618400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>383400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>453800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>538400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>439800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>279300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>431000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>450400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>330100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>214900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>367600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>305200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>238300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>275200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E27" s="3">
         <v>67300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>216900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-618400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>383400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>453800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>538400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>439800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>279300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>431000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>450400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>330100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>214900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>367600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>305200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>238300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>275200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1888,8 +1949,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1897,32 +1958,32 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-11900</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1500</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>69200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>22900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E33" s="3">
         <v>67300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>216900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-618400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>383400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>453800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>535800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>440100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>267400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>431000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>448900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>330100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>284100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>367600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>305200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>238300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>275200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E35" s="3">
         <v>67300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>216900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-618400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>383400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>453800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>535800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>440100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>267400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>431000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>448900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>330100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>284100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>367600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>305200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>238300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>275200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4895700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5767000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5985500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6059400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2240800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>524600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>455500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>513500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>521600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>744800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>790300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>552300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>901600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>961100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>909200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>869500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>855100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>847300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3222200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3115800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3001600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3684600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4383300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4406900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4201400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4378100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4170400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4281800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4137800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4323500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3953600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4333700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4029200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4386800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3990000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3218800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3100500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3134700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3095100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3697500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3508300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3386800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3216000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3344700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3310300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3354500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3125400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3259800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3174000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3180600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2995600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2944300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3031500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E45" s="3">
         <v>223900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>197100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>192200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>234900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>245500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>235000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>210600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>211200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>212300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>215700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>187900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>231100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>183400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>173500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>139200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>139300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>142300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11586800</v>
+      </c>
+      <c r="E46" s="3">
         <v>11991400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12433100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12348200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9857800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8661600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8484200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8141500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8455500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8437800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8642300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8003500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8715900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8272200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8597000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8033400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8325600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8011200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4959300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5018400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5025900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5062200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5225200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5224900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5119600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4501700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4377100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4375600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4466900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4521700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4392200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4366300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4388300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4377300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4271700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4331100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4702100</v>
+      </c>
+      <c r="E49" s="3">
         <v>4728300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4570800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4512600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4665300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4879100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4697000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4753500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4812500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4775900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4881500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4935300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5122300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5057400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5023300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4953600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4853900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4809300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>795100</v>
+      </c>
+      <c r="E52" s="3">
         <v>751700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>711800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>705200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>684100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>606400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>655800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>569800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>555700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>604900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>551400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>610000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>398900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>523600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>410000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>392300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>469800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>478400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22043300</v>
+      </c>
+      <c r="E54" s="3">
         <v>22489900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22741600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22628300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20432300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19372000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18956600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17966500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18200800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18194200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18542100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18070400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18629100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18219400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18418600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17756700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17920900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17630100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4221300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3554600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4035300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3447100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3969000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4159600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4247300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4314600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4293500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4230200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4217800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4136500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4235900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3745800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3951200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3971100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3849700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3549600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>965600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1374900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1326000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1544400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>831900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>793700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>57800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>543000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>792100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>787400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>786500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>294700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>541300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>538200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>534000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>551400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1821100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1787100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1806700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1726400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1824100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1978700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1796400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1747300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1663700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1727800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1635700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1665800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1515700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1695800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1650900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1590800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1328800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1471200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7007900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6716500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7168100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6717900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6625000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6932000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6101500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6103200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6500200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6750200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6641000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6588700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6046200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5983000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6140300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6095900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5729800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5052300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11741100</v>
+      </c>
+      <c r="E61" s="3">
         <v>12463300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12422800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12902500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10023300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8092900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8637700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8122100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8134500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8019800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7914300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6956600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8218700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7712400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8426400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7660900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8026600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8313700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1864200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1847300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1816700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1815100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1723600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1785600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1729600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1203300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1169200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1221200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1311300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1980400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1977100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2221800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1533600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1535500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1753700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1709200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20647700</v>
+      </c>
+      <c r="E66" s="3">
         <v>21063100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21441500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21469700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18403400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16844500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16501800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15463900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15838900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16026500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15903500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15563400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16277900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15950800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16183300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15375100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15590400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15154000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10241700</v>
+      </c>
+      <c r="E72" s="3">
         <v>10383500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10546600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10563000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11407000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11639700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11486800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11229700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10893600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10654700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10592500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10348600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9850700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9708300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9638400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9447800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9317400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9256100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1395600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1426800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1158600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2028900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2527500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2454700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2502600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2361900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2167600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2638600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2507000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2351200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2268600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2235300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2381500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2330500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2476000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E81" s="3">
         <v>67300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>216900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-618400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>383400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>453800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>535800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>440100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>267400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>431000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>448900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>330100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>284100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>367600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>305200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>238300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>275200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E83" s="3">
         <v>184800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>180500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>247200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>186200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>185000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>187400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>187300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>184200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>204800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>187600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>201800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>193400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>190700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>179700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>234700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>218300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>237300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>543100</v>
+      </c>
+      <c r="E89" s="3">
         <v>5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>930900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>540200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>324000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>582900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>171600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1046000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>447400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>646600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>271100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1034400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>191000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>850400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>82800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1156900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>477500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>351000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-88400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-75500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-116600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-210500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-217700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-175700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-309500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-159100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-119500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-104300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-315200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-114000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-122300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-136300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-272600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-541900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-80900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-96300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-132300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-281100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-246600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-163000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-362800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-117400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-354400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-157000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-267800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-134500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-279300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-120600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-136100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-230500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-230000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-228700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-228300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-229000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-199100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-200000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-200400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-195800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-192000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-187200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-187400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-187800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-172100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-174900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-176800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-178400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-170100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1333700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-205200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-950800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3377100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1535800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-255800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>62700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-897500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-429100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-579100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>68400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-998500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-102100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-382800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>72900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-912700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-225200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-92100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E101" s="3">
         <v>60000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>17100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>18600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>54700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-66200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-40700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-864500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-220400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-85700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3811000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1713100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-347200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-56400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>237500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-331300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-66800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>204700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>87400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,307 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16456500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16136900</v>
+      </c>
+      <c r="F8" s="3">
         <v>11824600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11559000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11777400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8866600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>13698700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15025000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>15303000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15474900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14658100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>14765700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>15215300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>15315900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14349500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>14411500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>14650400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>14421000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>13524200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>13457300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13484800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13221100</v>
+      </c>
+      <c r="F9" s="3">
         <v>9701900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>9460500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>9557500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7300900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11134500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>12196600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12359600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12495700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11903800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11994000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12311500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12399200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11673900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11712100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>11856800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11661500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>10990000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>10885400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2971700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2915800</v>
+      </c>
+      <c r="F10" s="3">
         <v>2122700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2098500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2219900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1565700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2564200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2828400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2943400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2979200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2754300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2771700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2903800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2916700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2675600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2699400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2793600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2759500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2534200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2571900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +988,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1052,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1120,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,14 +1140,14 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>259100</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>259100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1119,11 +1158,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1149,8 +1188,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,23 +1208,23 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
         <v>10700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>8700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>10300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>8600</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1190,11 +1235,11 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1211,8 +1256,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1283,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15824900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15567200</v>
+      </c>
+      <c r="F17" s="3">
         <v>11588700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11346900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11357800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9454000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13638400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14472500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14634700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14754300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>14128500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>14313800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14587100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>14628200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13863600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>13879200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>14031100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>13863100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>13088200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>12964900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>631600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>569700</v>
+      </c>
+      <c r="F18" s="3">
         <v>235900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>212100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>419600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-587400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>60300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>552500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>668300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>720600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>529600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>451900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>628200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>687700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>485900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>532300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>619300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>557900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>436000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>492400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1445,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F20" s="3">
         <v>12700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-20700</v>
       </c>
       <c r="G20" s="3">
         <v>15500</v>
       </c>
       <c r="H20" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-19200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-13700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>34100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-26900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-27600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-20600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-22900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-11700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-8500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>821400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>778600</v>
+      </c>
+      <c r="F21" s="3">
         <v>425800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>412400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>579400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-324800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>227200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>723700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>836700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>942000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>686900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>629000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>795200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>866500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>680800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>711300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>790500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>792800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>657400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>729600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>441100</v>
+      </c>
+      <c r="F22" s="3">
         <v>145800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>146500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>140200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>164300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>69800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>62200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>67500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>72400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>71700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>69700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>69600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>71600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>122500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>68900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>64400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>74500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>79300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>69800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>506700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>142000</v>
+      </c>
+      <c r="F23" s="3">
         <v>102900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>81100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>258700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-736200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-28800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>476500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>581900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>682300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>431000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>354600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>538000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>593200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>364900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>451700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>546500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>483500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>359800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>422500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F24" s="3">
         <v>13900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>13800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>41800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-117800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-25500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>93100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>128100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>143900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-8900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>75300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>107000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>142700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>34800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>236800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>178800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>178400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>121500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>147300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1849,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F26" s="3">
         <v>88900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>67300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>216900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-618400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>383400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>453800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>538400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>439800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>279300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>431000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>450400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>330100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>214900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>367600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>305200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>238300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>275200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F27" s="3">
         <v>88900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>67300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>216900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-618400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>383400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>453800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>538400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>439800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>279300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>431000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>450400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>330100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>214900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>367600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>305200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>238300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>275200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2053,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1952,44 +2073,44 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-2600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-11900</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-1500</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="3">
-        <v>69200</v>
+        <v>-1500</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>69200</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2121,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2189,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2257,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-12700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>20700</v>
       </c>
       <c r="G32" s="3">
         <v>-15500</v>
       </c>
       <c r="H32" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="J32" s="3">
         <v>19200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>13700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-34100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>26900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>27600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>20600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>22900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>11700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>8500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F33" s="3">
         <v>88900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>67300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>216900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-618400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>383400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>453800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>535800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>440100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>267400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>431000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>448900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>330100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>284100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>367600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>305200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>238300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>275200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2461,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F35" s="3">
         <v>88900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>67300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>216900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-618400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>383400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>453800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>535800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>440100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>267400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>431000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>448900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>330100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>284100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>367600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>305200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>238300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>275200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2632,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2658,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2067900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3007100</v>
+      </c>
+      <c r="F41" s="3">
         <v>4895700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5767000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5985500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6059400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2240800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>524600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>455500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>513500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>521600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>744800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>790300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>552300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>901600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>961100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>909200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>869500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>855100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>847300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2790,286 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4309900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3790300</v>
+      </c>
+      <c r="F43" s="3">
         <v>3222200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2900000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3115800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3001600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3684600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4383300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4406900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4201400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4378100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4170400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4281800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4137800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4323500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3953600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4333700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4029200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4386800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3990000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4054800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3695200</v>
+      </c>
+      <c r="F44" s="3">
         <v>3218800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3100500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3134700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3095100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3697500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3508300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3386800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3216000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3344700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3310300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3354500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3125400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3259800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3174000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3180600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2995600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2944300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3031500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>255600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>241000</v>
+      </c>
+      <c r="F45" s="3">
         <v>250000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>223900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>197100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>192200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>234900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>245500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>235000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>210600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>211200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>212300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>215700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>187900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>231100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>183400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>173500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>139200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>139300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>142300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10688200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10733600</v>
+      </c>
+      <c r="F46" s="3">
         <v>11586800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11991400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>12433100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>12348200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9857800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8661600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8484200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8141500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8455500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8437800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8642300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8003500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8715900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8272200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8597000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8033400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8325600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8011200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3130,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5093900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5035200</v>
+      </c>
+      <c r="F48" s="3">
         <v>4959300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5018400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5025900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5062200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5225200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5224900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5119600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4501700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4377100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4375600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4466900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4521700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4392200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4366300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4388300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4377300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>4271700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>4331100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5330300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4690200</v>
+      </c>
+      <c r="F49" s="3">
         <v>4702100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4728300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4570800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4512600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4665300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4879100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4697000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4753500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4812500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4775900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4881500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4935300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5122300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5057400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5023300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4953600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4853900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>4809300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3334,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3402,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>990400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>954500</v>
+      </c>
+      <c r="F52" s="3">
         <v>795100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>751700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>711800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>705200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>684100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>606400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>655800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>569800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>555700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>604900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>551400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>610000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>398900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>523600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>410000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>392300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>469800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>478400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3538,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22102900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21413500</v>
+      </c>
+      <c r="F54" s="3">
         <v>22043300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>22489900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>22741600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>22628300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>20432300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>19372000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18956600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17966500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>18200800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>18194200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>18542100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>18070400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>18629100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>18219400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>18418600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>17756700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>17920900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>17630100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3636,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3662,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5238300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4884800</v>
+      </c>
+      <c r="F57" s="3">
         <v>4221300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3554600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4035300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3447100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3969000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4159600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4247300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4314600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4293500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4230200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4217800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4136500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4235900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3745800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3951200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3971100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3849700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3549600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>494900</v>
+      </c>
+      <c r="F58" s="3">
         <v>965600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1374900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1326000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1544400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>831900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>793700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>57800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>41300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>543000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>792100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>787400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>786500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>294700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>541300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>538200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>534000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>551400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>31500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1999500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1940100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1821100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1787100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1806700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1726400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1824100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1978700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1796400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1747300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1663700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1727800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1635700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1665800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1515700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1695800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1650900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1590800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1328800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1471200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7738000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7319800</v>
+      </c>
+      <c r="F60" s="3">
         <v>7007900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6716500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7168100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6717900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6625000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6932000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6101500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6103200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6500200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6750200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6641000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6588700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6046200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5983000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6140300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6095900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5729800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5052300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10645400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10588200</v>
+      </c>
+      <c r="F61" s="3">
         <v>11741100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>12463300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>12422800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>12902500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>10023300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8092900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>8637700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8122100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8134500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>8019800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7914300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6956600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>8218700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>7712400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>8426400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>7660900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>8026600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>8313700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2012000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1918000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1864200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1847300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1816700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1815100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1723600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1785600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1729600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1203300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1169200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1221200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1311300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1980400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1977100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2221800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1533600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1535500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1753700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1709200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4134,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4202,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4270,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20429600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19860600</v>
+      </c>
+      <c r="F66" s="3">
         <v>20647700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>21063100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21441500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21469700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18403400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16844500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16501800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15463900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15838900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16026500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15903500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15563400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16277900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15950800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>16183300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>15375100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>15590400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>15154000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4368,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4432,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4500,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4568,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4636,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10288300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10151700</v>
+      </c>
+      <c r="F72" s="3">
         <v>10241700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>10383500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>10546600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>10563000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>11407000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>11639700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>11486800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>11229700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>10893600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>10654700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>10592500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>10348600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>9850700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>9708300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>9638400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>9447800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>9317400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>9256100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4772,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4840,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4908,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1673300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1552900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1395600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1426800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1300000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1158600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2028900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2527500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2454700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2502600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2361900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2167600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2638600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2507000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2351200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2268600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2235300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2381500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2330500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2476000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5044,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F81" s="3">
         <v>88900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>67300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>216900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-618400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>383400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>453800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>535800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>440100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>267400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>431000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>448900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>330100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>284100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>367600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>305200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>238300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>275200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5215,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>195400</v>
+      </c>
+      <c r="F83" s="3">
         <v>177100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>184800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>180500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>247200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>186200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>185000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>187400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>187300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>184200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>204800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>187600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>201800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>193400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>190700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>179700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>234700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>218300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>237300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5347,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5415,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5483,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5551,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5619,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>424100</v>
+      </c>
+      <c r="F89" s="3">
         <v>543100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>930900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>540200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>324000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>582900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>171600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1046000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>447400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>646600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>271100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1034400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>191000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>850400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>82800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1156900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>477500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>351000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5717,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-219500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-87200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-88400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-75500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-116600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-210500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-217700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-175700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-309500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-159100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-119500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-104300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-315200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-114000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-122300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-136300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-272600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-541900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5849,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5917,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-788600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-182900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-82000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-80900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-82900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-96300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-132300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-281100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-246600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-163000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-362800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-117400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-99600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-354400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-157000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-267800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-134500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-279300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-120600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-136100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +6015,78 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-240600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-228300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-230500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-230000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-228700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-228300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-229000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-199100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-200000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-200400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-195800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-192000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-187200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-187400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-187800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-172100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-174900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-176800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-178400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-170100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6147,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6215,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6283,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-237700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2138500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1333700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-205200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-950800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3377100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1535800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-255800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>62700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-897500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-429100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-579100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>68400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-998500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-102100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-382800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>72900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-912700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-225200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-92100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F101" s="3">
         <v>8100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>60000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>17100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-14400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>11100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-6500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-12900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>4900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>18600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>54700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-66200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-40700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-924900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1887900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-864500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-220400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-85700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3811000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1713100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>57100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-17800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-17500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-347200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-56400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>237500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-331300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-66800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>204700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>39700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>14400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>7800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>87400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16320200</v>
+      </c>
+      <c r="E8" s="3">
         <v>16456500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16136900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11824600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11559000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11777400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8866600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13698700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15025000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15303000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15474900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14658100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14765700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15215300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15315900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14349500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14411500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14650400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14421000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13524200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13457300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13429100</v>
+      </c>
+      <c r="E9" s="3">
         <v>13484800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13221100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9701900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9460500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9557500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7300900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11134500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12196600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12359600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12495700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11903800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11994000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12311500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12399200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11673900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11712100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11856800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11661500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10990000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10885400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2891100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2971700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2915800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2122700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2098500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2219900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1565700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2564200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2828400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2943400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2979200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2754300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2771700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2903800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2916700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2675600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2699400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2793600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2759500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2534200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2571900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1146,11 +1165,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>259100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1164,8 +1183,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1194,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1214,20 +1236,20 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
         <v>10700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8600</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1241,8 +1263,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15875300</v>
+      </c>
+      <c r="E17" s="3">
         <v>15824900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15567200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11588700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11346900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11357800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9454000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13638400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14472500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14634700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14754300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14128500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14313800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14587100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14628200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13863600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13879200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14031100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13863100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13088200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12964900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>444900</v>
+      </c>
+      <c r="E18" s="3">
         <v>631600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>569700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>235900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>212100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>419600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-587400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>60300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>552500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>668300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>720600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>529600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>451900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>628200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>687700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>485900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>532300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>619300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>557900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>436000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>492400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,348 +1479,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>15500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>34100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-22900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>646900</v>
+      </c>
+      <c r="E21" s="3">
         <v>821400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>778600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>425800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>412400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>579400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-324800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>227200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>723700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>836700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>942000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>686900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>629000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>795200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>866500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>680800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>711300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>790500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>792800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>657400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>729600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E22" s="3">
         <v>128200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>441100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>145800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>146500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>140200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>164300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>69800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>62200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>67500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>72400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>71700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>69700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>69600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>71600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>122500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>68900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>64400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>74500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>79300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>69800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>212700</v>
+      </c>
+      <c r="E23" s="3">
         <v>506700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>142000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>102900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>81100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>258700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-736200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>476500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>581900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>682300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>431000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>354600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>538000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>593200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>364900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>451700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>546500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>483500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>359800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>422500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E24" s="3">
         <v>128700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-9100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>41800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-117800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-25500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>93100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>128100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>143900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>75300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>107000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>142700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>236800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>178800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>178400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>121500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>147300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E26" s="3">
         <v>378000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>151100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>88900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>216900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-618400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>383400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>453800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>538400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>439800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>279300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>431000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>450400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>330100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>214900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>367600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>305200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>238300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>275200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E27" s="3">
         <v>378000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>151100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>88900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>67300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>216900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-618400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>383400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>453800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>538400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>439800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>279300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>431000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>450400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>330100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>214900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>367600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>305200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>238300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>275200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2079,8 +2139,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2088,32 +2148,32 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-11900</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1500</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>69200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-15500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-34100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>22900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E33" s="3">
         <v>378000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>151100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>88900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>216900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-618400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>383400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>453800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>535800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>440100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>267400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>431000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>448900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>330100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>284100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>367600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>305200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>238300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>275200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E35" s="3">
         <v>378000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>151100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>88900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>216900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-618400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>383400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>453800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>535800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>440100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>267400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>431000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>448900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>330100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>284100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>367600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>305200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>238300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>275200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1374300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2067900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3007100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4895700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5767000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5985500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6059400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2240800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>524600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>455500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>513500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>521600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>744800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>790300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>552300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>901600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>961100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>909200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>869500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>855100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>847300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,280 +2885,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4320800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4309900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3790300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3222200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2900000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3115800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3001600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3684600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4383300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4406900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4201400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4378100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4170400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4281800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4137800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4323500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3953600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4333700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4029200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4386800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3990000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4115700</v>
+      </c>
+      <c r="E44" s="3">
         <v>4054800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3695200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3218800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3100500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3134700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3095100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3697500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3508300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3386800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3216000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3344700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3310300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3354500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3125400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3259800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3174000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3180600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2995600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2944300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3031500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>252400</v>
+      </c>
+      <c r="E45" s="3">
         <v>255600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>241000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>250000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>223900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>197100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>192200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>234900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>245500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>235000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>210600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>211200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>212300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>215700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>187900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>231100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>183400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>173500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>139200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>139300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>142300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10063200</v>
+      </c>
+      <c r="E46" s="3">
         <v>10688200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10733600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11586800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11991400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12433100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12348200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9857800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8661600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8484200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8141500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8455500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8437800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8642300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8003500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8715900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8272200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8597000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8033400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8325600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8011200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5032000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5093900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5035200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4959300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5018400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5025900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5062200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5225200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5224900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5119600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4501700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4377100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4375600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4466900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4521700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4392200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4366300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4388300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4377300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4271700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4331100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5323200</v>
+      </c>
+      <c r="E49" s="3">
         <v>5330300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4690200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4702100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4728300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4570800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4512600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4665300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4879100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4697000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4753500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4812500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4775900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4881500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4935300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5122300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5057400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5023300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4953600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4853900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4809300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1008400</v>
+      </c>
+      <c r="E52" s="3">
         <v>990400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>954500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>795100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>751700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>711800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>705200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>684100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>606400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>655800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>569800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>555700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>604900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>551400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>610000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>398900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>523600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>410000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>392300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>469800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>478400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21426800</v>
+      </c>
+      <c r="E54" s="3">
         <v>22102900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21413500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22043300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22489900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22741600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22628300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20432300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19372000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18956600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17966500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18200800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18194200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18542100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18070400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18629100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18219400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18418600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17756700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17920900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17630100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5019100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5238300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4884800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4221300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3554600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4035300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3447100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3969000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4159600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4247300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4314600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4293500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4230200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4217800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4136500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4235900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3745800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3951200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3971100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3849700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3549600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E58" s="3">
         <v>500100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>494900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>965600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1374900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1326000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1544400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>831900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>793700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>57800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>543000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>792100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>787400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>786500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>294700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>541300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>538200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>534000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>551400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>31500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2078500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1999500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1940100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1821100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1787100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1806700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1726400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1824100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1978700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1796400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1747300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1663700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1727800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1635700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1665800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1515700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1695800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1650900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1590800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1328800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1471200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7593600</v>
+      </c>
+      <c r="E60" s="3">
         <v>7738000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7319800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7007900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6716500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7168100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6717900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6625000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6932000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6101500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6103200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6500200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6750200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6641000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6588700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6046200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5983000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6140300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6095900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5729800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5052300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10593400</v>
+      </c>
+      <c r="E61" s="3">
         <v>10645400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10588200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11741100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12463300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12422800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12902500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10023300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8092900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8637700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8122100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8134500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8019800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7914300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6956600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8218700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7712400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8426400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7660900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8026600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8313700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1986100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2012000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1918000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1864200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1847300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1816700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1815100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1723600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1785600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1729600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1203300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1169200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1221200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1311300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1980400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1977100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2221800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1533600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1535500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1753700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1709200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20205700</v>
+      </c>
+      <c r="E66" s="3">
         <v>20429600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19860600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20647700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21063100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21441500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21469700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18403400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16844500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16501800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15463900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15838900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16026500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15903500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15563400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16277900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15950800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16183300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15375100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15590400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15154000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10216600</v>
+      </c>
+      <c r="E72" s="3">
         <v>10288300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10151700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10241700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10383500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10546600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10563000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11407000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11639700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11486800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11229700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10893600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10654700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10592500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10348600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9850700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9708300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9638400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9447800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9317400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9256100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1221100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1673300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1552900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1395600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1426800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1158600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2028900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2527500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2454700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2502600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2361900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2167600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2638600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2507000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2351200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2268600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2235300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2381500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2330500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2476000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E81" s="3">
         <v>378000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>151100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>88900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>216900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-618400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>383400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>453800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>535800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>440100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>267400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>431000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>448900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>330100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>284100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>367600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>305200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>238300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>275200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E83" s="3">
         <v>186500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>195400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>177100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>184800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>180500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>247200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>186200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>185000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>187400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>187300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>184200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>204800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>187600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>201800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>193400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>190700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>179700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>234700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>218300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>237300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>266200</v>
+      </c>
+      <c r="E89" s="3">
         <v>110800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>424100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>543100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>930900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>540200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>324000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>582900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>171600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1046000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>447400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>646600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>271100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1034400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>191000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>850400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>82800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1156900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>477500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>351000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-85000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-219500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-87200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-88400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-75500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-116600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-210500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-217700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-175700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-309500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-159100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-119500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-104300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-315200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-114000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-122300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-136300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-272600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-541900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-152200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-788600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-182900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-82000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-80900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-96300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-132300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-281100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-246600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-163000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-362800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-117400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-354400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-157000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-267800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-134500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-279300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-120600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-136100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,76 +6249,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-240800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-240600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-228300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-230500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-230000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-228700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-228300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-229000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-199100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-200000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-200400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-195800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-192000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-187200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-187400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-187800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-172100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-174900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-176800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-178400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-170100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-789800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-237700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1333700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-205200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-950800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3377100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1535800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-255800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>62700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-897500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-429100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-579100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>68400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-998500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-102100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-382800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>72900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-912700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-225200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-92100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>60000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>17100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>18600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>54700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-66200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-40700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-677300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-924900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1887900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-864500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-220400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-85700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3811000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1713100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>57100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-347200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-56400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>237500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-331300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-66800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>204700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>87400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16902100</v>
+      </c>
+      <c r="E8" s="3">
         <v>16320200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16456500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16136900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11824600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11559000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11777400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8866600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13698700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15025000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15303000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15474900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14658100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14765700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15215300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15315900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14349500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14411500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14650400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14421000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13524200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13457300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13888700</v>
+      </c>
+      <c r="E9" s="3">
         <v>13429100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13484800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13221100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9701900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9460500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9557500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7300900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11134500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12196600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12359600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12495700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11903800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11994000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12311500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12399200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11673900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11712100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11856800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11661500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10990000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10885400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3013400</v>
+      </c>
+      <c r="E10" s="3">
         <v>2891100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2971700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2915800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2122700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2098500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2219900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1565700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2564200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2828400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2943400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2979200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2754300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2771700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2903800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2916700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2675600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2699400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2793600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2759500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2534200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2571900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1015,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1161,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,11 +1187,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>259100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1186,8 +1205,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1216,8 +1235,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1239,20 +1261,20 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>10700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8600</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1266,8 +1288,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1287,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16406400</v>
+      </c>
+      <c r="E17" s="3">
         <v>15875300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15824900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15567200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11588700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11346900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11357800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9454000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13638400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14472500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14634700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14754300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14128500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14313800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14587100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14628200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13863600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13879200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14031100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13863100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13088200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12964900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>495700</v>
+      </c>
+      <c r="E18" s="3">
         <v>444900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>631600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>569700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>235900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>212100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>419600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-587400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>552500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>668300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>720600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>529600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>451900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>628200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>687700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>485900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>532300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>619300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>557900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>436000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>492400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,363 +1512,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E20" s="3">
         <v>10700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>34100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-22900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>703400</v>
+      </c>
+      <c r="E21" s="3">
         <v>646900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>821400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>778600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>425800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>412400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>579400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-324800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>227200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>723700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>836700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>942000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>686900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>629000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>795200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>866500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>680800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>711300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>790500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>792800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>657400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>729600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E22" s="3">
         <v>242900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>128200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>441100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>145800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>146500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>140200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>164300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>69800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>62200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>67500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>72400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>71700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>69700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>69600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>122500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>68900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>64400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>74500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>79300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>69800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>385500</v>
+      </c>
+      <c r="E23" s="3">
         <v>212700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>506700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>142000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>102900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>81100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>258700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-736200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>476500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>581900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>682300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>431000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>354600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>538000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>593200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>364900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>451700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>546500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>483500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>359800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>422500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E24" s="3">
         <v>45200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>128700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-9100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-117800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-25500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>93100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>128100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>143900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>75300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>107000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>142700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>236800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>178800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>178400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>121500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>147300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E26" s="3">
         <v>167400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>378000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>151100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>88900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>216900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-618400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>383400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>453800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>538400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>439800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>279300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>431000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>450400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>330100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>214900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>367600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>305200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>238300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>275200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E27" s="3">
         <v>167400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>378000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>151100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>88900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>67300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>216900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-618400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>383400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>453800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>538400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>439800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>279300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>431000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>450400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>330100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>214900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>367600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>305200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>238300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>275200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2142,8 +2202,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2151,32 +2211,32 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1500</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>69200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-34100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>22900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E33" s="3">
         <v>167400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>378000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>151100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>88900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>216900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-618400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>383400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>453800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>535800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>440100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>267400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>431000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>448900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>330100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>284100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>367600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>305200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>238300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>275200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E35" s="3">
         <v>167400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>378000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>151100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>88900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>216900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-618400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>383400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>453800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>535800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>440100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>267400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>431000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>448900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>330100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>284100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>367600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>305200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>238300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>275200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>876100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1374300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2067900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3007100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4895700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5767000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5985500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6059400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2240800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>524600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>455500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>513500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>521600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>744800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>790300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>552300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>901600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>961100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>909200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>869500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>855100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>847300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,292 +2977,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4824800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4320800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4309900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3790300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3222200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3115800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3001600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3684600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4383300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4406900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4201400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4378100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4170400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4281800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4137800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4323500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3953600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4333700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4029200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4386800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3990000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4409100</v>
+      </c>
+      <c r="E44" s="3">
         <v>4115700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4054800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3695200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3218800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3100500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3134700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3095100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3697500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3508300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3386800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3216000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3344700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3310300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3354500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3125400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3259800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3174000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3180600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2995600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2944300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3031500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>303200</v>
+      </c>
+      <c r="E45" s="3">
         <v>252400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>255600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>241000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>250000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>223900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>197100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>192200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>234900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>245500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>235000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>210600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>211200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>212300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>215700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>187900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>231100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>183400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>173500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>139200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>139300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>142300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10413300</v>
+      </c>
+      <c r="E46" s="3">
         <v>10063200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10688200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10733600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11586800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11991400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12433100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12348200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9857800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8661600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8484200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8141500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8455500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8437800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8642300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8003500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8715900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8272200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8597000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8033400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8325600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8011200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,150 +3347,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5132400</v>
+      </c>
+      <c r="E48" s="3">
         <v>5032000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5093900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5035200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4959300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5018400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5025900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5062200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5225200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5224900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5119600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4501700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4377100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4375600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4466900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4521700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4392200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4366300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4388300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4377300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4271700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4331100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5746700</v>
+      </c>
+      <c r="E49" s="3">
         <v>5323200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5330300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4690200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4702100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4728300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4570800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4512600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4665300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4879100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4697000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4753500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4812500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4775900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4881500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4935300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5122300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5057400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5023300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4953600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4853900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4809300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1031300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1008400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>990400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>954500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>795100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>751700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>711800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>705200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>684100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>606400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>655800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>569800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>555700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>604900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>551400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>610000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>398900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>523600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>410000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>392300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>469800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>478400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22323700</v>
+      </c>
+      <c r="E54" s="3">
         <v>21426800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22102900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21413500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22043300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22489900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22741600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22628300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20432300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19372000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18956600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17966500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18200800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18194200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18542100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18070400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18629100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18219400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18418600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17756700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17920900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17630100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3923,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5721700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5019100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5238300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4884800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4221300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3554600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4035300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3447100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3969000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4159600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4247300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4314600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4293500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4230200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4217800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4136500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4235900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3745800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3951200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3971100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3849700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3549600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>506700</v>
+      </c>
+      <c r="E58" s="3">
         <v>496000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>494900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>965600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1374900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1326000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1544400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>831900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>793700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>57800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>41300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>543000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>792100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>787400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>786500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>294700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>541300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>538200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>534000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>551400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>31500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2143800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2078500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1999500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1940100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1821100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1787100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1806700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1726400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1824100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1978700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1796400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1747300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1663700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1727800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1635700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1665800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1515700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1695800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1650900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1590800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1328800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1471200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8372200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7593600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7738000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7319800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7007900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6716500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7168100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6717900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6625000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6932000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6101500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6103200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6500200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6750200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6641000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6588700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6046200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5983000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6140300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6095900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5729800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5052300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10608800</v>
+      </c>
+      <c r="E61" s="3">
         <v>10593400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10645400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10588200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11741100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12463300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12422800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12902500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10023300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8092900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8637700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8122100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8134500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8019800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7914300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6956600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8218700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7712400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8426400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7660900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8026600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8313700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1988200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1986100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2012000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1918000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1864200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1847300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1816700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1815100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1723600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1785600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1729600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1203300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1169200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1221200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1311300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1980400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1977100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2221800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1533600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1535500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1753700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1709200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21002300</v>
+      </c>
+      <c r="E66" s="3">
         <v>20205700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20429600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19860600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20647700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21063100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21441500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21469700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18403400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16844500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16501800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15463900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15838900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16026500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15903500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15563400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16277900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15950800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16183300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15375100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15590400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15154000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10279800</v>
+      </c>
+      <c r="E72" s="3">
         <v>10216600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10288300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10151700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10241700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10383500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10546600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10563000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11407000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11639700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11486800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11229700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10893600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10654700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10592500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10348600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9850700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9708300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9638400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9447800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9317400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9256100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1321400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1221100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1673300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1552900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1395600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1426800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1158600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2028900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2527500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2454700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2502600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2361900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2167600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2638600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2507000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2351200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2268600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2235300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2381500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2330500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2476000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E81" s="3">
         <v>167400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>378000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>151100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>88900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>216900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-618400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>383400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>453800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>535800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>440100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>267400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>431000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>448900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>330100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>284100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>367600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>305200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>238300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>275200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>193800</v>
+      </c>
+      <c r="E83" s="3">
         <v>191300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>186500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>195400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>177100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>184800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>180500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>247200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>186200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>185000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>187400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>187300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>184200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>204800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>187600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>201800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>193400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>190700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>179700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>234700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>218300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>237300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>368800</v>
+      </c>
+      <c r="E89" s="3">
         <v>266200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>110800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>424100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>543100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>930900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>540200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>324000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>582900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>171600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1046000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>447400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>646600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>271100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1034400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>191000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>850400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>82800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1156900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>477500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>351000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-96400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-85000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-219500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-87200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-88400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-75500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-116600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-210500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-217700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-175700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-309500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-159100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-119500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-104300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-315200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-114000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-122300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-136300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-272600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-541900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-642500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-152200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-788600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-182900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-82000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-80900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-96300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-132300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-281100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-246600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-163000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-362800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-117400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-354400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-157000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-267800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-134500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-279300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-120600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-136100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,79 +6482,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-238500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-240800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-240600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-228300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-230500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-230000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-228700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-228300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-229000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-199100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-200000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-200400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-195800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-192000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-187200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-187400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-187800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-172100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-174900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-176800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-178400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-170100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-213400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-789800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-237700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1333700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-205200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-950800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3377100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1535800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-255800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>62700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-897500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-429100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-579100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>68400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-998500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-102100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-382800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>72900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-912700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-225200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-92100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>60000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>17100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>18600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>54700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-66200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-40700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-489800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-677300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-924900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1887900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-864500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-220400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-85700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3811000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1713100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>57100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-347200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>237500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-331300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-66800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>204700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>87400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,355 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19126800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18957300</v>
+      </c>
+      <c r="F8" s="3">
         <v>16902100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>16320200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>16456500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>16136900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11824600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11559000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11777400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8866600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>13698700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>15025000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>15303000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>15474900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14658100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>14765700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>15215300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>15315900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>14349500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>14411500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>14650400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>14421000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>13524200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>13457300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15638000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15513000</v>
+      </c>
+      <c r="F9" s="3">
         <v>13888700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>13429100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>13484800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>13221100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>9701900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>9460500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9557500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7300900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11134500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12196600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12359600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12495700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11903800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11994000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>12311500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>12399200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11673900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>11712100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>11856800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>11661500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>10990000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>10885400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3488800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3444300</v>
+      </c>
+      <c r="F10" s="3">
         <v>3013400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2891100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2971700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2915800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2122700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2098500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2219900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1565700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2564200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2828400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2943400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2979200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2754300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2771700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2903800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2916700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2675600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2699400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2793600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2759500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>2534200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>2571900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1040,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,8 +1116,14 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,8 +1196,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1190,14 +1228,14 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>259100</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>259100</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1208,11 +1246,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1238,8 +1276,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,23 +1308,23 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>10700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>8700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>10300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8600</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1291,11 +1335,11 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1312,8 +1356,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1387,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18392500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18190500</v>
+      </c>
+      <c r="F17" s="3">
         <v>16406400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15875300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15824900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>15567200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11588700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11346900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11357800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9454000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13638400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>14472500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14634700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>14754300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>14128500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>14313800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>14587100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>14628200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>13863600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>13879200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>14031100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>13863100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>13088200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>12964900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>734300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>766800</v>
+      </c>
+      <c r="F18" s="3">
         <v>495700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>444900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>631600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>569700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>235900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>212100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>419600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-587400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>60300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>552500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>668300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>720600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>529600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>451900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>628200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>687700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>485900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>532300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>619300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>557900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>436000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>492400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,378 +1577,410 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>13800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>10700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>13500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>12700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-20700</v>
       </c>
       <c r="K20" s="3">
         <v>15500</v>
       </c>
       <c r="L20" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="N20" s="3">
         <v>-19200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-13700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-19000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>34100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-27600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-20600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-22900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-11700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-8500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>3100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>908000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>971700</v>
+      </c>
+      <c r="F21" s="3">
         <v>703400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>646900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>821400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>778600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>425800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>412400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>579400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-324800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>227200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>723700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>836700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>942000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>686900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>629000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>795200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>866500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>680800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>711300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>790500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>792800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>657400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>729600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>128500</v>
+      </c>
+      <c r="F22" s="3">
         <v>124000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>242900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>128200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>441100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>145800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>146500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>140200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>164300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>69800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>62200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>67500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>72400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>71700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>69700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>69600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>71600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>122500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>68900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>64400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>74500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>79300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>69800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>594900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>641900</v>
+      </c>
+      <c r="F23" s="3">
         <v>385500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>212700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>506700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>142000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>102900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>81100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>258700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-736200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-28800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>476500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>581900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>682300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>431000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>354600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>538000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>593200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>364900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>451700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>546500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>483500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>359800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>422500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>131900</v>
+      </c>
+      <c r="F24" s="3">
         <v>82200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>45200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>128700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-9100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>13900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>13800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>41800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-117800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-25500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>93100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>128100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>143900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>75300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>107000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>142700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>34800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>236800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>178800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>178400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>121500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>147300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2053,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>465600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>510000</v>
+      </c>
+      <c r="F26" s="3">
         <v>303300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>167400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>378000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>151100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>88900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>67300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>216900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-618400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>383400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>453800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>538400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>439800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>279300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>431000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>450400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>330100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>214900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>367600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>305200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>238300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>275200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>465600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>510000</v>
+      </c>
+      <c r="F27" s="3">
         <v>303300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>167400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>378000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>151100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>88900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>67300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>216900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-618400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>383400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>453800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>538400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>439800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>279300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>431000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>450400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>330100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>214900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>367600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>305200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>238300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>275200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,70 +2293,76 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-2600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-11900</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-1500</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U29" s="3">
-        <v>69200</v>
+        <v>-1500</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
+      <c r="W29" s="3">
+        <v>69200</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2253,8 +2373,14 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2453,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2533,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-13800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-10700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-13500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-12700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>20700</v>
       </c>
       <c r="K32" s="3">
         <v>-15500</v>
       </c>
       <c r="L32" s="3">
+        <v>20700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="N32" s="3">
         <v>19200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>13700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>19000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-34100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>26900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>27600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>20600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>22900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>11700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>8500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>465600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>510000</v>
+      </c>
+      <c r="F33" s="3">
         <v>303300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>167400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>378000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>151100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>88900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>67300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>216900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-618400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>383400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>453800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>535800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>440100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>267400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>431000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>448900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>330100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>284100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>367600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>305200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>238300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>275200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2773,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>465600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>510000</v>
+      </c>
+      <c r="F35" s="3">
         <v>303300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>167400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>378000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>151100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>88900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>67300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>216900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-618400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>383400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>453800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>535800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>440100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>267400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>431000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>448900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>330100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>284100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>367600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>305200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>238300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>275200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2972,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,82 +3002,90 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>437700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>867100</v>
+      </c>
+      <c r="F41" s="3">
         <v>876100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1374300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2067900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3007100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4895700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5767000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5985500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6059400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2240800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>524600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>455500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>513500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>521600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>744800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>790300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>552300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>901600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>961100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>909200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>869500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>855100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>847300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,304 +3158,334 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5336900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4874800</v>
+      </c>
+      <c r="F43" s="3">
         <v>4824800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4320800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4309900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3790300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3222200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2900000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3115800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3001600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3684600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4383300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4406900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4201400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4378100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4170400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4281800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4137800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4323500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3953600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4333700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>4029200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4386800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>3990000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4682600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4437500</v>
+      </c>
+      <c r="F44" s="3">
         <v>4409100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4115700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4054800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3695200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3218800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3100500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3134700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3095100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3697500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3508300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3386800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3216000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3344700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3310300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3354500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3125400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3259800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3174000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3180600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2995600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2944300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>3031500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>310100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>303800</v>
+      </c>
+      <c r="F45" s="3">
         <v>303200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>252400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>255600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>241000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>250000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>223900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>197100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>192200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>234900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>245500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>235000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>210600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>211200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>212300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>215700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>187900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>231100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>183400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>173500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>139200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>139300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>142300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10767300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10483200</v>
+      </c>
+      <c r="F46" s="3">
         <v>10413300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10063200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10688200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10733600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11586800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>11991400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>12433100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>12348200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9857800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8661600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8484200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8141500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8455500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8437800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8642300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8003500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8715900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8272200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8597000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>8033400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8325600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>8011200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3350,156 +3558,174 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5167300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5179700</v>
+      </c>
+      <c r="F48" s="3">
         <v>5132400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5032000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5093900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5035200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4959300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5018400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5025900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5062200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5225200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5224900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5119600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4501700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4377100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4375600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4466900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4521700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>4392200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>4366300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>4388300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>4377300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>4271700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>4331100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5340900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5495000</v>
+      </c>
+      <c r="F49" s="3">
         <v>5746700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5323200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5330300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4690200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4702100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4728300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4570800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4512600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4665300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4879100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4697000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4753500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4812500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4775900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4881500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4935300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5122300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5057400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5023300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4953600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>4853900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>4809300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3798,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3878,94 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>935500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>927800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1031300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1008400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>990400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>954500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>795100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>751700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>711800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>705200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>684100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>606400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>655800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>569800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>555700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>604900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>551400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>610000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>398900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>523600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>410000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>392300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>469800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>478400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +4038,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22210900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>22085700</v>
+      </c>
+      <c r="F54" s="3">
         <v>22323700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>21426800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>22102900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>21413500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>22043300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>22489900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22741600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>22628300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>20432300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>19372000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>18956600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17966500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>18200800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>18194200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>18542100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>18070400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>18629100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>18219400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>18418600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>17756700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>17920900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>17630100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4152,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,452 +4182,490 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6018200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5753000</v>
+      </c>
+      <c r="F57" s="3">
         <v>5721700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5019100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5238300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4884800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4221300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3554600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4035300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3447100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3969000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4159600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4247300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4314600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4293500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4230200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4217800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4136500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4235900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3745800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3951200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3971100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3849700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>3549600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>555800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>580600</v>
+      </c>
+      <c r="F58" s="3">
         <v>506700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>496000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>500100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>494900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>965600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1374900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1326000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1544400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>831900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>793700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>57800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>41300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>543000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>792100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>787400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>786500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>294700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>541300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>538200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>534000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>551400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>31500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2385200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2416500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2143800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2078500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1999500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1940100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1821100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1787100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1806700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1726400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1824100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1978700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1796400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1747300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1663700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1727800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1635700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1665800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1515700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1695800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1650900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1590800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1328800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1471200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8959300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8750100</v>
+      </c>
+      <c r="F60" s="3">
         <v>8372200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7593600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7738000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7319800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7007900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6716500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7168100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6717900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6625000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6932000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6101500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6103200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6500200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6750200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6641000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6588700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6046200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5983000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6140300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6095900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5729800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5052300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10263300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10066900</v>
+      </c>
+      <c r="F61" s="3">
         <v>10608800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>10593400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10645400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>10588200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>11741100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>12463300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>12422800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>12902500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>10023300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>8092900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>8637700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>8122100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>8134500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>8019800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7914300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>6956600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>8218700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>7712400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>8426400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>7660900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>8026600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>8313700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1841800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1854500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1988200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1986100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2012000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1918000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1864200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1847300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1816700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1815100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1723600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1785600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1729600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1203300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1169200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1221200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1311300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1980400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1977100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2221800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1533600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1535500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1753700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1709200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4738,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4818,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4898,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21095600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20703400</v>
+      </c>
+      <c r="F66" s="3">
         <v>21002300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>20205700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>20429600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19860600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>20647700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21063100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21441500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21469700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18403400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16844500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16501800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15463900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15838900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16026500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>15903500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>15563400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>16277900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>15950800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>16183300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>15375100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>15590400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>15154000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +5012,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +5088,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5168,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5248,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5328,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10757100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10539700</v>
+      </c>
+      <c r="F72" s="3">
         <v>10279800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>10216600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>10288300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>10151700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>10241700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>10383500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>10546600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>10563000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>11407000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11639700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>11486800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>11229700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10893600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>10654700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>10592500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>10348600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>9850700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>9708300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>9638400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>9447800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>9317400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>9256100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5488,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5568,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5648,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1115300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1382300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1321400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1221100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1673300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1552900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1395600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1426800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1300000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1158600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2028900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2527500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2454700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2502600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2361900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2167600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2638600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2507000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2351200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2268600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2235300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2381500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2330500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2476000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5808,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>465600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>510000</v>
+      </c>
+      <c r="F81" s="3">
         <v>303300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>167400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>378000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>151100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>88900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>67300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>216900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-618400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>383400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>453800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>535800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>440100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>267400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>431000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>448900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>330100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>284100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>367600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>305200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>238300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>275200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +6007,90 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>201300</v>
+      </c>
+      <c r="F83" s="3">
         <v>193800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>191300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>186500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>195400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>177100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>184800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>180500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>247200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>186200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>185000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>187400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>187300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>184200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>204800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>187600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>201800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>193400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>190700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>179700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>234700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>218300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>237300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +6163,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6243,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6323,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6403,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6483,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>158600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1045400</v>
+      </c>
+      <c r="F89" s="3">
         <v>368800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>266200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>110800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>424100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>543100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>930900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>540200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>324000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>582900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>171600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1046000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>447400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>646600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>271100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1034400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>191000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>850400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>82800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1156900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>477500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>351000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6597,90 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-167300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-305300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-146200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-96400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-85000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-219500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-87200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-88400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-75500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-116600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-210500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-217700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-175700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-309500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-159100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-119500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-104300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-315200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-114000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-122300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-136300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-272600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-541900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6753,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6833,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-174800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-294900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-642500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-152200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-788600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-182900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-82000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-80900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-82900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-96300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-132300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-281100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-246600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-163000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-362800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-117400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-99600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-354400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-157000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-267800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-134500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-279300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-120600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-136100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,82 +6947,90 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-249300</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-239100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-238500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-240800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-240600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-228300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-230500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-230000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-228700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-228300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-229000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-199100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-200000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-200400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-195800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-192000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-187200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-187400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-187800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-172100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-174900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-176800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-178400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-170100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +7103,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +7183,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7263,250 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-746000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-213400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-789800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-237700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1333700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-205200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-950800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3377100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1535800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-255800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>62700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-897500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-429100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-579100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>68400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-998500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-102100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-382800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>72900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-912700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-225200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-92100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-9400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>9400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>8100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>60000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>17100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-14400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>11100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-6500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-12900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>4900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>18600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>54700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-66200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-40700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-428000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-489800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-677300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-924900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1887900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-864500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-220400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-85700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3811000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1713100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>57100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-17800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-17500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-347200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-56400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>237500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-331300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-66800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>204700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>39700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>14400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>7800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>87400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,368 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18594000</v>
+      </c>
+      <c r="E8" s="3">
         <v>19126800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18957300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16902100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16320200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16456500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16136900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11824600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11559000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11777400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8866600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13698700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15025000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15303000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15474900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14658100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14765700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15215300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15315900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14349500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14411500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14650400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14421000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>13524200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>13457300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15244300</v>
+      </c>
+      <c r="E9" s="3">
         <v>15638000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15513000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13888700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13429100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13484800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13221100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9701900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9460500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9557500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7300900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11134500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12196600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12359600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12495700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11903800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11994000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12311500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12399200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11673900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11712100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11856800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11661500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10990000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>10885400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3349700</v>
+      </c>
+      <c r="E10" s="3">
         <v>3488800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3444300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3013400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2891100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2971700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2915800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2122700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2098500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2219900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1565700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2564200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2828400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2943400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2979200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2754300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2771700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2903800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2916700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2675600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2699400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2793600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2759500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2534200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2571900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1055,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1122,8 +1136,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1202,13 +1219,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>315400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1234,11 +1254,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>259100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1252,8 +1272,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1282,8 +1302,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,20 +1337,20 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>10700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8600</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1341,8 +1364,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1362,8 +1385,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1389,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18268700</v>
+      </c>
+      <c r="E17" s="3">
         <v>18392500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18190500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16406400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15875300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15824900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15567200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11588700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11346900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11357800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9454000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13638400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14472500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14634700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14754300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14128500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14313800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14587100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14628200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13863600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13879200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14031100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13863100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>13088200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>12964900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>325300</v>
+      </c>
+      <c r="E18" s="3">
         <v>734300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>766800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>495700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>444900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>631600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>569700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>235900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>212100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>419600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-587400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>552500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>668300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>720600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>529600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>451900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>628200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>687700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>485900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>532300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>619300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>557900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>436000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>492400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,408 +1612,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-22900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500500</v>
+      </c>
+      <c r="E21" s="3">
         <v>908000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>971700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>703400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>646900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>821400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>778600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>425800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>412400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>579400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-324800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>227200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>723700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>836700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>942000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>686900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>629000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>795200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>866500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>680800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>711300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>790500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>792800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>657400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>729600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E22" s="3">
         <v>124200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>128500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>124000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>242900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>128200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>441100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>145800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>146500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>140200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>164300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>69800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>62200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>67500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>72400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>69700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>69600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>71600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>122500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>68900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>64400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>74500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>79300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>69800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E23" s="3">
         <v>594900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>641900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>385500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>212700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>506700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>142000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>102900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>81100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>258700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-736200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-28800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>476500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>581900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>682300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>431000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>354600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>538000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>593200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>364900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>451700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>546500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>483500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>359800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>422500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E24" s="3">
         <v>129300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>131900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>82200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>45200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>128700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-117800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>93100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>128100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>143900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>75300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>107000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>142700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>34800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>236800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>178800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>178400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>121500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>147300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2059,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E26" s="3">
         <v>465600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>510000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>303300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>167400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>378000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>151100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>88900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>216900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-618400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>383400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>453800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>538400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>439800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>279300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>431000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>450400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>330100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>214900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>367600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>305200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>238300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>275200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E27" s="3">
         <v>465600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>510000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>303300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>167400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>378000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>151100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>88900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>216900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-618400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>383400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>453800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>538400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>439800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>279300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>431000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>450400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>330100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>214900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>367600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>305200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>238300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>275200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2299,8 +2357,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2325,14 +2386,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2340,32 +2401,32 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-11900</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-1500</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>69200</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2379,8 +2440,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2459,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2539,168 +2606,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E32" s="3">
         <v>15300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>22900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E33" s="3">
         <v>465600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>510000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>303300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>167400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>378000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>151100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>88900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>216900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-618400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>383400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>453800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>535800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>440100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>267400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>431000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>448900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>330100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>284100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>367600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>305200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>238300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>275200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2779,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E35" s="3">
         <v>465600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>510000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>303300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>167400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>378000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>151100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>88900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>216900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-618400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>383400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>453800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>535800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>440100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>267400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>431000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>448900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>330100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>284100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>367600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>305200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>238300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>275200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2974,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3004,88 +3090,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500300</v>
+      </c>
+      <c r="E41" s="3">
         <v>437700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>867100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>876100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1374300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2067900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3007100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4895700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5767000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5985500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6059400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2240800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>524600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>455500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>513500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>521600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>744800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>790300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>552300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>901600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>961100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>909200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>869500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>855100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>847300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3164,328 +3254,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4933600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5336900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4874800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4824800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4320800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4309900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3790300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3222200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3115800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3001600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3684600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4383300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4406900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4201400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4378100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4170400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4281800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4137800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4323500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3953600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4333700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4029200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4386800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3990000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4661500</v>
+      </c>
+      <c r="E44" s="3">
         <v>4682600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4437500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4409100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4115700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4054800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3695200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3218800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3100500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3134700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3095100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3697500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3508300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3386800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3216000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3344700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3310300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3354500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3125400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3259800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3174000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3180600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2995600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2944300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3031500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300500</v>
+      </c>
+      <c r="E45" s="3">
         <v>310100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>303800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>303200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>252400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>255600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>241000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>250000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>223900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>197100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>192200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>234900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>245500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>235000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>210600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>211200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>212300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>215700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>187900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>231100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>183400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>173500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>139200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>139300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>142300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10396000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10767300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10483200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10413300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10063200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10688200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10733600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11586800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11991400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12433100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12348200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9857800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8661600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8484200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8141500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8455500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8437800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8642300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8003500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8715900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8272200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8597000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8033400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8325600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8011200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3564,168 +3669,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5271000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5167300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5179700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5132400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5032000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5093900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5035200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4959300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5018400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5025900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5062200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5225200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5224900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5119600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4501700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4377100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4375600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4466900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4521700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4392200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4366300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4388300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4377300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4271700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4331100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5488100</v>
+      </c>
+      <c r="E49" s="3">
         <v>5340900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5495000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5746700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5323200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5330300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4690200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4702100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4728300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4570800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4512600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4665300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4879100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4697000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4753500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4812500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4775900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4881500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4935300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5122300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5057400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5023300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4953600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4853900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4809300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3804,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3884,88 +4001,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>932200</v>
+      </c>
+      <c r="E52" s="3">
         <v>935500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>927800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1031300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1008400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>990400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>954500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>795100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>751700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>711800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>705200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>684100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>606400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>655800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>569800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>555700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>604900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>551400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>610000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>398900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>523600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>410000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>392300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>469800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>478400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4044,88 +4167,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22087200</v>
+      </c>
+      <c r="E54" s="3">
         <v>22210900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22085700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22323700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21426800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22102900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21413500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22043300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22489900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22741600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22628300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20432300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19372000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18956600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17966500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18200800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18194200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18542100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18070400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18629100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18219400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18418600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17756700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17920900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>17630100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4154,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4184,488 +4314,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5420400</v>
+      </c>
+      <c r="E57" s="3">
         <v>6018200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5753000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5721700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5019100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5238300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4884800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4221300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3554600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4035300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3447100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3969000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4159600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4247300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4314600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4293500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4230200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4217800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4136500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4235900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3745800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3951200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3971100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3849700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3549600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>702100</v>
+      </c>
+      <c r="E58" s="3">
         <v>555800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>580600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>506700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>496000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>494900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>965600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1374900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1326000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1544400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>831900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>793700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>57800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>41300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>543000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>792100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>787400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>786500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>294700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>541300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>538200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>534000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>551400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>31500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2266000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2385200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2416500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2143800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2078500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1999500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1940100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1821100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1787100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1806700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1726400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1824100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1978700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1796400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1747300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1663700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1727800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1635700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1665800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1515700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1695800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1650900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1590800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1328800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1471200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8388500</v>
+      </c>
+      <c r="E60" s="3">
         <v>8959300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8750100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8372200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7593600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7738000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7319800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7007900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6716500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7168100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6717900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6625000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6932000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6101500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6103200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6500200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6750200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6641000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6588700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6046200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5983000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6140300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6095900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5729800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5052300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10349900</v>
+      </c>
+      <c r="E61" s="3">
         <v>10263300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10066900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10608800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10593400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10645400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10588200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11741100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12463300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12422800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12902500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10023300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8092900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8637700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8122100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8134500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8019800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7914300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6956600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8218700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7712400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8426400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7660900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8026600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8313700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1878900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1841800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1854500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1988200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1986100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2012000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1918000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1864200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1847300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1816700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1815100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1723600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1785600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1729600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1203300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1169200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1221200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1311300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1980400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1977100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2221800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1533600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1535500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1753700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1709200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4744,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4824,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4904,88 +5059,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20650600</v>
+      </c>
+      <c r="E66" s="3">
         <v>21095600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20703400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21002300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20205700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20429600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19860600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20647700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21063100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21441500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21469700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18403400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16844500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16501800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15463900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15838900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16026500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15903500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15563400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16277900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15950800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16183300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15375100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15590400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>15154000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5014,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5094,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5174,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5254,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5334,88 +5505,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10649300</v>
+      </c>
+      <c r="E72" s="3">
         <v>10757100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10539700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10279800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10216600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10288300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10151700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10241700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10383500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10546600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10563000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11407000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11639700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11486800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11229700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10893600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10654700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10592500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10348600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9850700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9708300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9638400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9447800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9317400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9256100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5494,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5574,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5654,88 +5837,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1436600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1115300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1382300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1321400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1221100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1673300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1552900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1395600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1426800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1158600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2028900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2527500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2454700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2502600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2361900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2167600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2638600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2507000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2351200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2268600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2235300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2381500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2330500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2476000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5814,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E81" s="3">
         <v>465600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>510000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>303300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>167400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>378000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>151100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>88900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>216900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-618400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>383400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>453800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>535800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>440100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>267400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>431000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>448900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>330100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>284100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>367600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>305200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>238300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>275200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6009,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E83" s="3">
         <v>188900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>201300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>193800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>191300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>186500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>195400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>177100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>184800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>180500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>247200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>186200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>185000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>187400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>187300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>184200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>204800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>187600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>201800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>193400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>190700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>179700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>234700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>218300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>237300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6169,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6249,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6329,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6409,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6489,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>344900</v>
+      </c>
+      <c r="E89" s="3">
         <v>158600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1045400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>368800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>266200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>110800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>424100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>543100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>930900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>540200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>324000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>582900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>171600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1046000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>447400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>646600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>271100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1034400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>191000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>850400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>82800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1156900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>477500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>351000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6599,88 +6819,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-167300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-305300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-146200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-96400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-85000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-219500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-87200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-88400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-75500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-116600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-210500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-217700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-175700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-309500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-159100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-119500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-104300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-315200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-114000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-122300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-136300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-272600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-541900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6759,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6839,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-144600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-174800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-294900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-642500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-152200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-788600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-182900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-80900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-82900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-96300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-132300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-281100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-246600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-163000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-362800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-117400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-99600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-354400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-157000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-267800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-134500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-279300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-120600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-136100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6949,88 +7182,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-249300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-239100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-238500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-240800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-240600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-228300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-230500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-230000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-228700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-228300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-229000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-199100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-200000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-200400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-195800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-192000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-187200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-187400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-187800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-172100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-174900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-176800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-178400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-170100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7109,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7189,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7269,244 +7512,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-127100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-746000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-213400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-789800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-237700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1333700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-205200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-950800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3377100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1535800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-255800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>62700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-897500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-429100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-579100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>68400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-998500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-102100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-382800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>72900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-912700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-225200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-92100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-18300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>9400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>60000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>18600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>54700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-66200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-40700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-428000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-489800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-677300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-924900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1887900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-864500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-220400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-85700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3811000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1713100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>57100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-347200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-56400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>237500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-331300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-66800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>204700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>39700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>14400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>7800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>87400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,381 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18875700</v>
+      </c>
+      <c r="E8" s="3">
         <v>18594000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19126800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18957300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16902100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16320200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16456500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16136900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11824600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11559000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11777400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8866600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13698700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15025000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15303000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15474900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14658100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14765700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15215300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15315900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14349500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14411500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14650400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>14421000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>13524200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>13457300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15444300</v>
+      </c>
+      <c r="E9" s="3">
         <v>15244300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15638000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15513000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13888700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13429100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13484800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13221100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9701900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9460500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9557500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7300900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11134500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12196600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12359600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12495700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11903800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11994000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12311500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12399200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11673900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11712100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11856800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11661500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>10990000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>10885400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3431400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3349700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3488800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3444300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3013400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2891100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2971700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2915800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2122700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2098500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2219900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1565700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2564200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2828400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2943400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2979200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2754300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2771700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2903800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2916700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2675600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2699400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2793600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2759500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2534200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2571900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1069,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1139,8 +1153,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,16 +1239,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>315400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1257,11 +1277,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>259100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1275,8 +1295,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1305,8 +1325,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,20 +1363,20 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>10700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8600</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1367,8 +1390,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1388,8 +1411,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18181500</v>
+      </c>
+      <c r="E17" s="3">
         <v>18268700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18392500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18190500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16406400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15875300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15824900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15567200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11588700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11346900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11357800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9454000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13638400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14472500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14634700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14754300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14128500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14313800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14587100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14628200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13863600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13879200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>14031100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>13863100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>13088200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>12964900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>694200</v>
+      </c>
+      <c r="E18" s="3">
         <v>325300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>734300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>766800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>495700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>444900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>631600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>569700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>235900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>212100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>419600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-587400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>552500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>668300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>720600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>529600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>451900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>628200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>687700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>485900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>532300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>619300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>557900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>436000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>492400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,423 +1646,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-14800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-19000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-27600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-22900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>885000</v>
+      </c>
+      <c r="E21" s="3">
         <v>500500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>908000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>971700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>703400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>646900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>821400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>778600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>425800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>412400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>579400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-324800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>227200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>723700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>836700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>942000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>686900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>629000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>795200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>866500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>680800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>711300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>790500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>792800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>657400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>729600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E22" s="3">
         <v>132000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>124200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>128500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>124000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>242900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>128200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>441100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>145800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>146500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>140200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>164300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>69800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>62200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>67500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>72400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>71700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>69700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>69600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>71600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>122500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>68900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>64400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>74500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>79300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>69800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E23" s="3">
         <v>178500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>594900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>641900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>385500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>212700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>506700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>142000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>102900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>81100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>258700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-736200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>476500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>581900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>682300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>431000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>354600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>538000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>593200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>364900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>451700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>546500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>483500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>359800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>422500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E24" s="3">
         <v>37300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>129300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>131900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>82200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>45200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>128700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-117800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>93100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>128100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>143900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-8900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>75300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>107000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>142700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>34800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>236800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>178800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>178400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>121500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>147300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>429600</v>
+      </c>
+      <c r="E26" s="3">
         <v>141200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>465600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>510000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>303300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>167400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>378000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>151100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>88900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>216900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-618400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>383400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>453800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>538400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>439800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>279300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>431000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>450400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>330100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>214900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>367600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>305200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>238300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>275200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>429600</v>
+      </c>
+      <c r="E27" s="3">
         <v>141200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>465600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>510000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>303300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>167400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>378000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>151100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>88900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>216900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-618400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>383400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>453800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>538400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>439800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>279300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>431000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>450400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>330100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>214900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>367600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>305200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>238300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>275200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2360,8 +2418,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2389,14 +2450,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2404,32 +2465,32 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-11900</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-1500</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>69200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2443,8 +2504,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,174 +2676,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>14800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-13500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>19000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>27600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>22900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>8500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>429600</v>
+      </c>
+      <c r="E33" s="3">
         <v>141200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>465600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>510000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>303300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>167400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>378000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>151100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>88900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>216900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-618400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>383400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>453800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>535800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>440100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>267400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>431000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>448900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>330100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>284100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>367600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>305200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>238300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>275200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>429600</v>
+      </c>
+      <c r="E35" s="3">
         <v>141200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>465600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>510000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>303300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>167400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>378000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>151100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>88900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>216900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-618400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>383400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>453800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>535800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>440100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>267400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>431000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>448900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>330100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>284100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>367600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>305200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>238300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>275200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,91 +3177,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>757900</v>
+      </c>
+      <c r="E41" s="3">
         <v>500300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>437700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>867100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>876100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1374300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2067900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3007100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4895700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5767000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5985500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6059400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2240800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>524600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>455500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>513500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>521600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>744800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>790300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>552300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>901600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>961100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>909200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>869500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>855100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>847300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3257,340 +3347,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5227400</v>
+      </c>
+      <c r="E43" s="3">
         <v>4933600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5336900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4874800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4824800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4320800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4309900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3790300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3222200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3115800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3001600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3684600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4383300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4406900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4201400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4378100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4170400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4281800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4137800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4323500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3953600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4333700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4029200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4386800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3990000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4620600</v>
+      </c>
+      <c r="E44" s="3">
         <v>4661500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4682600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4437500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4409100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4115700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4054800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3695200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3218800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3100500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3134700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3095100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3697500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3508300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3386800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3216000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3344700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3310300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3354500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3125400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3259800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3174000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3180600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2995600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2944300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3031500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>292700</v>
+      </c>
+      <c r="E45" s="3">
         <v>300500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>310100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>303800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>303200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>252400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>255600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>241000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>250000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>223900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>197100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>192200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>234900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>245500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>235000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>210600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>211200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>212300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>215700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>187900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>231100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>183400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>173500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>139200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>139300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>142300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10898600</v>
+      </c>
+      <c r="E46" s="3">
         <v>10396000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10767300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10483200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10413300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10063200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10688200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10733600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11586800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11991400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12433100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12348200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9857800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8661600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8484200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8141500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8455500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8437800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8642300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8003500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8715900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8272200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8597000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8033400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8325600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8011200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3672,174 +3777,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5358100</v>
+      </c>
+      <c r="E48" s="3">
         <v>5271000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5167300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5179700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5132400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5032000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5093900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5035200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4959300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5018400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5025900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5062200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5225200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5224900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5119600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4501700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4377100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4375600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4466900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4521700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4392200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4366300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4388300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4377300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4271700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4331100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5500400</v>
+      </c>
+      <c r="E49" s="3">
         <v>5488100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5340900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5495000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5746700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5323200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5330300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4690200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4702100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4728300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4570800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4512600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4665300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4879100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4697000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4753500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4812500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4775900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4881500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4935300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5122300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5057400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5023300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4953600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4853900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4809300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,91 +4121,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>944900</v>
+      </c>
+      <c r="E52" s="3">
         <v>932200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>935500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>927800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1031300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1008400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>990400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>954500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>795100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>751700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>711800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>705200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>684100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>606400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>655800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>569800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>555700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>604900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>551400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>610000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>398900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>523600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>410000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>392300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>469800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>478400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,91 +4293,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22702000</v>
+      </c>
+      <c r="E54" s="3">
         <v>22087200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22210900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22085700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22323700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21426800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22102900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21413500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22043300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22489900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22741600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22628300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20432300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19372000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18956600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17966500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18200800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18194200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18542100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18070400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18629100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18219400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18418600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17756700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>17920900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>17630100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,506 +4445,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5902200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5420400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6018200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5753000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5721700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5019100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5238300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4884800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4221300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3554600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4035300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3447100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3969000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4159600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4247300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4314600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4293500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4230200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4217800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4136500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4235900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3745800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3951200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3971100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3849700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3549600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>723500</v>
+      </c>
+      <c r="E58" s="3">
         <v>702100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>555800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>580600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>506700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>496000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>494900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>965600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1374900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1326000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1544400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>831900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>793700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>57800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>41300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>543000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>792100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>787400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>786500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>294700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>541300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>538200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>534000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>551400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>31500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2355000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2266000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2385200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2416500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2143800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2078500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1999500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1940100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1821100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1787100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1806700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1726400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1824100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1978700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1796400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1747300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1663700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1727800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1635700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1665800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1515700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1695800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1650900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1590800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1328800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1471200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8980700</v>
+      </c>
+      <c r="E60" s="3">
         <v>8388500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8959300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8750100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8372200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7593600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7738000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7319800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7007900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6716500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7168100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6717900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6625000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6932000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6101500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6103200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6500200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6750200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6641000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6588700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6046200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5983000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6140300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6095900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5729800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5052300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10258300</v>
+      </c>
+      <c r="E61" s="3">
         <v>10349900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10263300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10066900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10608800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10593400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10645400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10588200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11741100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12463300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12422800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12902500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10023300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8092900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8637700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8122100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8134500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8019800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7914300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6956600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8218700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7712400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8426400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7660900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8026600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8313700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1854600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1878900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1841800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1854500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1988200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1986100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2012000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1918000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1864200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1847300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1816700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1815100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1723600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1785600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1729600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1203300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1169200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1221200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1311300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1980400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1977100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2221800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1533600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1535500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1753700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1709200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,91 +5217,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21126700</v>
+      </c>
+      <c r="E66" s="3">
         <v>20650600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21095600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20703400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21002300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20205700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20429600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19860600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20647700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21063100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21441500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21469700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18403400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16844500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16501800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15463900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15838900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16026500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15903500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15563400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16277900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15950800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16183300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15375100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>15590400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>15154000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5425,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,91 +5679,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10829900</v>
+      </c>
+      <c r="E72" s="3">
         <v>10649300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10757100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10539700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10279800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10216600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10288300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10151700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10241700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10383500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10546600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10563000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11407000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11639700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11486800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11229700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10893600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10654700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10592500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10348600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9850700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9708300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9638400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9447800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9317400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9256100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,91 +6023,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1575300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1436600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1115300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1382300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1321400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1221100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1673300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1552900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1395600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1426800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1158600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2028900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2527500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2454700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2502600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2361900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2167600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2638600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2507000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2351200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2268600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2235300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2381500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2330500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2476000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>429600</v>
+      </c>
+      <c r="E81" s="3">
         <v>141200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>465600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>510000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>303300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>167400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>378000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>151100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>88900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>216900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-618400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>383400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>453800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>535800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>440100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>267400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>431000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>448900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>330100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>284100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>367600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>305200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>238300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>275200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6406,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E83" s="3">
         <v>190000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>188900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>201300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>193800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>191300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>186500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>195400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>177100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>184800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>180500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>247200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>186200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>185000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>187400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>187300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>184200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>204800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>187600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>201800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>193400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>190700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>179700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>234700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>218300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>237300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>922300</v>
+      </c>
+      <c r="E89" s="3">
         <v>344900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>158600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1045400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>368800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>266200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>110800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>424100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>543100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>930900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>540200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>324000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>582900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>171600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1046000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>447400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>646600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>271100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1034400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>191000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>850400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>82800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1156900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>477500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>351000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-164800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-142400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-167300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-305300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-146200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-96400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-85000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-219500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-87200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-88400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-75500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-116600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-210500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-217700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-175700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-309500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-159100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-119500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-104300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-315200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-114000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-122300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-136300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-272600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-541900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-144600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-174800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-294900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-642500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-152200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-788600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-182900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-82000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-80900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-96300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-132300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-281100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-246600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-163000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-362800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-117400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-99600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-354400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-157000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-267800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-134500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-279300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-120600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-136100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,91 +7416,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-249100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-249000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-249300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-239100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-238500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-240800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-240600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-228300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-230500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-230000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-228700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-228300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-229000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-199100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-200000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-200400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-195800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-192000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-187200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-187400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-187800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-172100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-174900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-176800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-178400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-170100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,253 +7758,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-495600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-127100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-746000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-213400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-789800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-237700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1333700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-205200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-950800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3377100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1535800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-255800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>62700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-897500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-429100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-579100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>68400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-998500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-102100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-382800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>72900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-912700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-225200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-92100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>9100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-18300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>9400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>60000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-12900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>18600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>54700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-66200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-40700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E102" s="3">
         <v>82200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-428000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-489800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-677300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-924900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1887900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-864500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-220400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-85700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3811000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1713100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>57100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-347200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-56400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>237500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-331300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-66800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>204700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>39700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>14400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>7800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>87400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,393 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19728200</v>
+      </c>
+      <c r="E8" s="3">
         <v>18875700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18594000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19126800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18957300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16902100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16320200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16456500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16136900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11824600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11559000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11777400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8866600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13698700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15025000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15303000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15474900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14658100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14765700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15215300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15315900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14349500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14411500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>14650400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>14421000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>13524200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>13457300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16043100</v>
+      </c>
+      <c r="E9" s="3">
         <v>15444300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15244300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15638000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15513000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13888700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13429100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13484800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13221100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9701900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9460500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9557500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7300900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11134500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12196600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12359600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12495700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11903800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11994000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12311500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12399200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11673900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11712100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11856800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11661500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>10990000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>10885400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3685200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3431400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3349700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3488800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3444300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3013400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2891100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2971700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2915800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2122700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2098500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2219900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1565700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2564200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2828400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2943400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2979200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2754300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2771700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2903800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2916700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2675600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2699400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2793600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2759500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2534200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2571900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,8 +1082,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,19 +1258,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>315400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1280,11 +1299,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>259100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1298,8 +1317,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1328,8 +1347,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,20 +1388,20 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>10700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8600</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1393,8 +1415,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1414,8 +1436,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18758800</v>
+      </c>
+      <c r="E17" s="3">
         <v>18181500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18268700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18392500</v>
       </c>
-      <c r="G17" s="3">
-        <v>18190500</v>
-      </c>
       <c r="H17" s="3">
+        <v>18183100</v>
+      </c>
+      <c r="I17" s="3">
         <v>16406400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15875300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15824900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15567200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11588700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11346900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11357800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9454000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13638400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14472500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14634700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14754300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14128500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14313800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14587100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14628200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13863600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13879200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>14031100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>13863100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>13088200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>12964900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>969400</v>
+      </c>
+      <c r="E18" s="3">
         <v>694200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>325300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>734300</v>
       </c>
-      <c r="G18" s="3">
-        <v>766800</v>
-      </c>
       <c r="H18" s="3">
+        <v>774200</v>
+      </c>
+      <c r="I18" s="3">
         <v>495700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>444900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>631600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>569700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>235900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>212100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>419600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-587400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>552500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>668300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>720600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>529600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>451900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>628200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>687700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>485900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>532300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>619300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>557900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>436000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>492400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1647,438 +1679,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-14800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15300</v>
       </c>
-      <c r="G20" s="3">
-        <v>3600</v>
-      </c>
       <c r="H20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I20" s="3">
         <v>13800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-19000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-26900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-27600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-20600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-22900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1294200</v>
+      </c>
+      <c r="E21" s="3">
         <v>885000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>908000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>971700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>703400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>646900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>821400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>778600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>425800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>412400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>579400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-324800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>227200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>723700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>836700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>942000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>686900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>629000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>795200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>866500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>680800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>711300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>790500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>792800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>657400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>729600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>135600</v>
+      </c>
+      <c r="E22" s="3">
         <v>134900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>132000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>124200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>128500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>124000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>242900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>128200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>441100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>145800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>146500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>140200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>164300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>69800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>62200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>67500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>72400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>71700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>69700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>69600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>71600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>122500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>68900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>64400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>74500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>79300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>69800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>957900</v>
+      </c>
+      <c r="E23" s="3">
         <v>554000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>178500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>594900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>641900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>385500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>212700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>506700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>142000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>102900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>81100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>258700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-736200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>476500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>581900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>682300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>431000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>354600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>538000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>593200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>364900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>451700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>546500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>483500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>359800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>422500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E24" s="3">
         <v>124400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>129300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>131900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>82200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>45200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>128700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-117800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>93100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>128100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>143900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-8900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>75300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>107000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>142700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>34800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>236800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>178800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>178400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>121500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>147300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2163,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>733700</v>
+      </c>
+      <c r="E26" s="3">
         <v>429600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>141200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>465600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>510000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>303300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>167400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>378000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>151100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>88900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>216900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-618400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>383400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>453800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>538400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>439800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>279300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>431000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>450400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>330100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>214900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>367600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>305200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>238300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>275200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>733700</v>
+      </c>
+      <c r="E27" s="3">
         <v>429600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>141200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>465600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>510000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>303300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>167400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>378000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>151100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>88900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>216900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-618400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>383400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>453800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>538400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>439800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>279300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>431000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>450400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>330100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>214900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>367600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>305200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>238300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>275200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2421,8 +2478,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2453,14 +2513,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2468,32 +2528,32 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-11900</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-1500</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>69200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2507,8 +2567,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2593,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,180 +2745,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="E32" s="3">
         <v>5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>14800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-13800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>19000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>26900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>27600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>20600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>22900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>8500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>733700</v>
+      </c>
+      <c r="E33" s="3">
         <v>429600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>141200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>465600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>510000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>303300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>167400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>378000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>151100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>88900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>216900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-618400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>383400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>453800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>535800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>440100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>267400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>431000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>448900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>330100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>284100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>367600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>305200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>238300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>275200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>733700</v>
+      </c>
+      <c r="E35" s="3">
         <v>429600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>141200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>465600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>510000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>303300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>167400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>378000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>151100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>88900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>216900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-618400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>383400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>453800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>535800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>440100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>267400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>431000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>448900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>330100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>284100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>367600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>305200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>238300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>275200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,94 +3263,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>745200</v>
+      </c>
+      <c r="E41" s="3">
         <v>757900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>437700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>867100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>876100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1374300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2067900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3007100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4895700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5767000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5985500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6059400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2240800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>524600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>455500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>513500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>521600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>744800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>790300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>552300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>901600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>961100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>909200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>869500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>855100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>847300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3350,352 +3439,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5097800</v>
+      </c>
+      <c r="E43" s="3">
         <v>5227400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4933600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5336900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4874800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4824800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4320800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4309900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3790300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3222200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3115800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3001600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3684600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4383300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4406900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4201400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4378100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4170400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4281800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4137800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4323500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3953600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4333700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4029200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4386800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3990000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4480800</v>
+      </c>
+      <c r="E44" s="3">
         <v>4620600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4661500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4682600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4437500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4409100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4115700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4054800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3695200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3218800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3100500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3134700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3095100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3697500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3508300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3386800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3216000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3344700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3310300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3354500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3125400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3259800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3174000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3180600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2995600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2944300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3031500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>284600</v>
+      </c>
+      <c r="E45" s="3">
         <v>292700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>310100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>303800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>303200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>252400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>255600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>241000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>250000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>223900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>197100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>192200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>234900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>245500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>235000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>210600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>211200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>212300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>215700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>187900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>231100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>183400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>173500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>139200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>139300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>142300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10608400</v>
+      </c>
+      <c r="E46" s="3">
         <v>10898600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10396000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10767300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10483200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10413300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10063200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10688200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10733600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11586800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11991400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12433100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12348200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9857800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8661600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8484200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8141500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8455500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8437800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8642300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8003500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8715900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8272200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8597000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8033400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8325600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8011200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3780,180 +3884,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5646800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5358100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5271000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5167300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5179700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5132400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5032000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5093900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5035200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4959300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5018400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5025900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5062200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5225200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5224900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5119600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4501700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4377100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4375600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4466900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4521700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4392200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4366300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4388300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4377300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4271700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4331100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5505300</v>
+      </c>
+      <c r="E49" s="3">
         <v>5500400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5488100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5340900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5495000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5746700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5323200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5330300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4690200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4702100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4728300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4570800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4512600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4665300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4879100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4697000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4753500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4812500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4775900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4881500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4935300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5122300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5057400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5023300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4953600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4853900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4809300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4038,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4124,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1060700</v>
+      </c>
+      <c r="E52" s="3">
         <v>944900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>932200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>935500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>927800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1031300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1008400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>990400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>954500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>795100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>751700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>711800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>705200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>684100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>606400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>655800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>569800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>555700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>604900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>551400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>610000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>398900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>523600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>410000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>392300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>469800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>478400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4296,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22821100</v>
+      </c>
+      <c r="E54" s="3">
         <v>22702000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22087200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22210900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22085700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22323700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21426800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22102900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21413500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22043300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22489900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22741600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22628300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20432300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19372000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18956600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17966500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18200800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18194200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18542100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18070400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18629100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18219400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>18418600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>17756700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>17920900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>17630100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4446,524 +4575,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6025800</v>
+      </c>
+      <c r="E57" s="3">
         <v>5902200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5420400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6018200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5753000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5721700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5019100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5238300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4884800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4221300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3554600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4035300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3447100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3969000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4159600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4247300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4314600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4293500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4230200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4217800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4136500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4235900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3745800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3951200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3971100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3849700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3549600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E58" s="3">
         <v>723500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>702100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>555800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>580600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>506700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>496000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>494900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>965600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1374900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1326000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1544400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>831900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>793700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>57800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>41300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>543000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>792100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>787400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>786500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>294700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>541300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>538200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>534000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>551400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>31500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2452100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2355000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2266000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2385200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2416500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2143800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2078500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1999500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1940100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1821100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1787100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1806700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1726400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1824100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1978700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1796400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1747300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1663700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1727800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1635700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1665800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1515700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1695800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1650900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1590800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1328800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1471200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8540400</v>
+      </c>
+      <c r="E60" s="3">
         <v>8980700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8388500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8959300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8750100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8372200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7593600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7738000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7319800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7007900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6716500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7168100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6717900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6625000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6932000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6101500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6103200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6500200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6750200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6641000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6588700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6046200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5983000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6140300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6095900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5729800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5052300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10348000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10258300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10349900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10263300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10066900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10608800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10593400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10645400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10588200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11741100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12463300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12422800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12902500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10023300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8092900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8637700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8122100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8134500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8019800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7914300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6956600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8218700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7712400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8426400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7660900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8026600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>8313700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1890900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1854600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1878900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1841800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1854500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1988200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1986100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2012000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1918000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1864200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1847300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1816700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1815100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1723600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1785600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1729600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1203300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1169200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1221200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1311300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1980400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1977100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2221800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1533600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1535500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1753700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1709200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5048,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5134,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5220,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20812500</v>
+      </c>
+      <c r="E66" s="3">
         <v>21126700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20650600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21095600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20703400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21002300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20205700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20429600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19860600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20647700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21063100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21441500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21469700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18403400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16844500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16501800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15463900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15838900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16026500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15903500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15563400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16277900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15950800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16183300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>15375100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>15590400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>15154000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5338,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5424,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5510,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5596,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5682,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11310700</v>
+      </c>
+      <c r="E72" s="3">
         <v>10829900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10649300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10757100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10539700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10279800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10216600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10288300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10151700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10241700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10383500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10546600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10563000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11407000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11639700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11486800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11229700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10893600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10654700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10592500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10348600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9850700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9708300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9638400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9447800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9317400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>9256100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5854,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5940,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6026,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2008600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1575300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1436600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1115300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1382300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1321400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1221100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1673300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1552900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1395600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1426800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1158600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2028900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2527500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2454700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2502600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2361900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2167600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2638600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2507000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2351200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2268600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2235300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2381500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2330500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2476000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6198,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>733700</v>
+      </c>
+      <c r="E81" s="3">
         <v>429600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>141200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>465600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>510000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>303300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>167400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>378000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>151100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>88900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>216900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-618400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>383400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>453800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>535800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>440100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>267400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>431000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>448900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>330100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>284100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>367600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>305200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>238300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>275200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6407,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200700</v>
+      </c>
+      <c r="E83" s="3">
         <v>196000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>190000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>188900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>201300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>193800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>191300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>186500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>195400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>177100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>184800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>180500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>247200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>186200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>185000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>187400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>187300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>184200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>204800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>187600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>201800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>193400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>190700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>179700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>234700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>218300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>237300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6579,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6665,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6751,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6837,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6923,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1441800</v>
+      </c>
+      <c r="E89" s="3">
         <v>922300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>344900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>158600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1045400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>368800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>266200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>110800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>424100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>543100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>930900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>540200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>324000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>582900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>171600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1046000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>447400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>646600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>271100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1034400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>191000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>850400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>82800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1156900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>477500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>351000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7041,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-318900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-164800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-142400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-167300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-305300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-146200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-96400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-85000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-219500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-87200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-88400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-75500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-116600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-210500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-217700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-175700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-309500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-159100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-119500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-104300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-315200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-114000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-122300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-136300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-272600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-541900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7213,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7299,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-303300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-161900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-144600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-174800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-294900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-642500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-152200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-788600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-182900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-82000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-80900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-82900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-96300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-132300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-281100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-246600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-163000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-362800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-117400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-99600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-354400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-157000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-267800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-134500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-279300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-120600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-136100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7417,94 +7649,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-248600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-249100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-249000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-249300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-239100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-238500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-240800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-240600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-228300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-230500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-230000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-228700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-228300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-229000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-199100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-200000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-200400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-195800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-192000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-187200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-187400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-187800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-172100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-174900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-176800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-178400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-170100</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7675,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7761,262 +8003,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1032900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-495600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-127100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-746000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-213400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-789800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-237700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1333700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-205200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-950800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3377100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1535800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-255800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>62700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-897500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-429100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-579100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>68400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-998500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-102100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-382800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>72900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-912700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-225200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-92100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-18300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>60000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>17100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-12900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>18600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>54700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-66200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-40700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E102" s="3">
         <v>268800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>82200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-428000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-489800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-677300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-924900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1887900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-864500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-220400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-85700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3811000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1713100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>57100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-347200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-56400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>237500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-331300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-66800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>204700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>39700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>14400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>7800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>87400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3159400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>SYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,406 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19620500</v>
+      </c>
+      <c r="E8" s="3">
         <v>19728200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18875700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18594000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19126800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18957300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16902100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16320200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16456500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16136900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11824600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11559000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11777400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8866600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13698700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15025000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15303000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15474900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14658100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14765700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15215300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>15315900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14349500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>14411500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>14650400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>14421000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>13524200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>13457300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>13968700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15972700</v>
+      </c>
+      <c r="E9" s="3">
         <v>16043100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15444300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15244300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15638000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15513000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13888700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13429100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13484800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13221100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9701900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9460500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9557500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7300900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11134500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12196600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12359600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12495700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11903800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11994000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12311500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12399200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11673900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11712100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11856800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11661500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>10990000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>10885400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>11276700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3647800</v>
+      </c>
+      <c r="E10" s="3">
         <v>3685200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3431400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3349700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3488800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3444300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3013400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2891100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2971700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2915800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2122700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2098500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2219900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1565700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2564200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2828400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2943400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2979200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2754300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2771700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2903800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2916700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2675600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2699400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2793600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2759500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2534200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2571900</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2692000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,8 +1096,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1172,8 +1186,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1261,8 +1278,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-122000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>315400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1302,11 +1322,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>259100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1320,8 +1340,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1350,31 +1370,34 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1391,20 +1414,20 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>10700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8600</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1418,8 +1441,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1439,8 +1462,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18758800</v>
+        <v>18816900</v>
       </c>
       <c r="E17" s="3">
+        <v>18636800</v>
+      </c>
+      <c r="F17" s="3">
         <v>18181500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18268700</v>
       </c>
-      <c r="G17" s="3">
-        <v>18392500</v>
-      </c>
       <c r="H17" s="3">
+        <v>18390000</v>
+      </c>
+      <c r="I17" s="3">
         <v>18183100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16406400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15875300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15824900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15567200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11588700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11346900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11357800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9454000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13638400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14472500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14634700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14754300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14128500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14313800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14587100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14628200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13863600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>13879200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>14031100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>13863100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>13088200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>12964900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>13401800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>969400</v>
+        <v>803600</v>
       </c>
       <c r="E18" s="3">
+        <v>1091400</v>
+      </c>
+      <c r="F18" s="3">
         <v>694200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>325300</v>
       </c>
-      <c r="G18" s="3">
-        <v>734300</v>
-      </c>
       <c r="H18" s="3">
+        <v>736800</v>
+      </c>
+      <c r="I18" s="3">
         <v>774200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>495700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>444900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>631600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>569700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>235900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>212100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>419600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-587400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>60300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>552500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>668300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>720600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>529600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>451900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>628200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>687700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>485900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>532300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>619300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>557900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>436000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>492400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>566900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1680,453 +1713,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>124200</v>
+        <v>-6700</v>
       </c>
       <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-15300</v>
-      </c>
       <c r="H20" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-19200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-19000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-26900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-27600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-22900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1002900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1294200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>885000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>908000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>971700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>703400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>646900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>821400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>778600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>425800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>412400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>579400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-324800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>227200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>723700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>836700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>942000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>686900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>629000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>795200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>866500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>680800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>711300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>790500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>792800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>657400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>729600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>782300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E22" s="3">
         <v>135600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>134900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>132000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>124200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>128500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>124000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>242900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>128200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>441100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>145800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>146500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>140200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>164300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>69800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>62200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>67500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>72400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>71700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>69700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>69600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>71600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>122500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>68900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>64400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>74500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>79300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>69800</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>662600</v>
+      </c>
+      <c r="E23" s="3">
         <v>957900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>554000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>178500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>594900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>641900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>385500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>212700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>506700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>142000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>102900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>81100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>258700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-736200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-28800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>476500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>581900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>682300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>431000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>354600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>538000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>593200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>364900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>451700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>546500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>483500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>359800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>422500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>500400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E24" s="3">
         <v>224200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>124400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>129300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>131900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>82200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>128700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-117800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-25500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>93100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>128100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>143900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-8900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>75300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>107000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>142700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>34800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>236800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>178800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>178400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>121500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>147300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2214,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>503400</v>
+      </c>
+      <c r="E26" s="3">
         <v>733700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>429600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>141200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>465600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>510000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>303300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>167400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>378000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>151100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>88900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>216900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-618400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>383400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>453800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>538400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>439800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>279300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>431000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>450400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>330100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>214900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>367600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>305200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>238300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>275200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>503400</v>
+      </c>
+      <c r="E27" s="3">
         <v>733700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>429600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>141200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>465600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>510000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>303300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>167400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>378000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>151100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>88900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>216900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-618400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>383400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>453800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>538400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>439800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>279300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>431000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>450400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>330100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>214900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>367600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>305200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>238300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>275200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2481,8 +2539,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2516,14 +2577,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2531,32 +2592,32 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-2600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-11900</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>69200</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2570,8 +2631,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2659,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2748,186 +2815,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-124200</v>
+        <v>6700</v>
       </c>
       <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14800</v>
       </c>
-      <c r="G32" s="3">
-        <v>15300</v>
-      </c>
       <c r="H32" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>19200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>19000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>26900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>27600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>22900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>11700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>8500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>503400</v>
+      </c>
+      <c r="E33" s="3">
         <v>733700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>429600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>141200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>465600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>510000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>303300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>167400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>378000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>151100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>88900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>67300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>216900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-618400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>383400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>453800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>535800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>440100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>267400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>431000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>448900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>330100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>284100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>367600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>305200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>238300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>275200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>503400</v>
+      </c>
+      <c r="E35" s="3">
         <v>733700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>429600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>141200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>465600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>510000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>303300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>167400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>378000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>151100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>88900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>67300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>216900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-618400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>383400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>453800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>535800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>440100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>267400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>431000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>448900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>330100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>284100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>367600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>305200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>238300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>275200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3231,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3264,97 +3350,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>569100</v>
+      </c>
+      <c r="E41" s="3">
         <v>745200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>757900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>437700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>867100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>876100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1374300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2067900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3007100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4895700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5767000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5985500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6059400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2240800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>524600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>455500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>513500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>521600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>744800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>790300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>552300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>901600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>961100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>909200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>869500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>855100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>847300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>759900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3442,364 +3532,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5344500</v>
+      </c>
+      <c r="E43" s="3">
         <v>5097800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5227400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4933600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5336900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4874800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4824800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4320800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4309900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3790300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3222200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3115800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3001600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3684600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4383300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4406900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4201400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4378100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4170400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4281800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4137800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4323500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3953600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4333700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4029200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4386800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3990000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>4191500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4648600</v>
+      </c>
+      <c r="E44" s="3">
         <v>4480800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4620600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4661500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4682600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4437500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4409100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4115700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4054800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3695200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3218800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3100500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3134700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3095100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3697500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3508300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3386800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3216000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3344700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3310300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3354500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3125400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3259800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3174000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3180600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2995600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2944300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3031500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3025800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>333500</v>
+      </c>
+      <c r="E45" s="3">
         <v>284600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>292700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>310100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>303800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>303200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>252400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>255600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>241000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>250000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>223900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>197100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>192200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>234900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>245500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>235000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>210600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>211200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>212300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>215700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>187900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>231100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>183400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>173500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>139200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>139300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>142300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10895700</v>
+      </c>
+      <c r="E46" s="3">
         <v>10608400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10898600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10396000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10767300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10483200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10413300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10063200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10688200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10733600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11586800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11991400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12433100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12348200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9857800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8661600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8484200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8141500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8455500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8437800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8642300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8003500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8715900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8272200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8597000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8033400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8325600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8011200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>8135500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3887,186 +3992,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5795400</v>
+      </c>
+      <c r="E48" s="3">
         <v>5646800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5358100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5271000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5167300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5179700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5132400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5032000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5093900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5035200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4959300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5018400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5025900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5062200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5225200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5224900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5119600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4501700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4377100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4375600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4466900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4521700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4392200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4366300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4388300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4377300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4271700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4331100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>4418500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5594300</v>
+      </c>
+      <c r="E49" s="3">
         <v>5505300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5500400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5488100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5340900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5495000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5746700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5323200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5330300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4690200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4702100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4728300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4570800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4512600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4665300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4879100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4697000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4753500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4812500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4775900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4881500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4935300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5122300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5057400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5023300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4953600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4853900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4809300</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>5019600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>987300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1060700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>944900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>932200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>935500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>927800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1031300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1008400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>990400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>954500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>795100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>751700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>711800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>705200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>684100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>606400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>655800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>569800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>555700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>604900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>551400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>610000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>398900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>523600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>410000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>392300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>469800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>478400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>451300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23272800</v>
+      </c>
+      <c r="E54" s="3">
         <v>22821100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22702000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22087200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22210900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22085700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22323700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21426800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22102900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21413500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22043300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22489900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22741600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22628300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20432300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19372000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18956600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17966500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18200800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18194200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18542100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18070400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18629100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>18219400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>18418600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>17756700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>17920900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>17630100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>18024800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,542 +4706,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5796400</v>
+      </c>
+      <c r="E57" s="3">
         <v>6025800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5902200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5420400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6018200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5753000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5721700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5019100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5238300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4884800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4221300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3554600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4035300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3447100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3969000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4159600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4247300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4314600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4293500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4230200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4217800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4136500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4235900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3745800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3951200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3971100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3849700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3549600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>3716500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E58" s="3">
         <v>62600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>723500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>702100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>555800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>580600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>506700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>496000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>494900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>965600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1374900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1326000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1544400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>831900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>793700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>57800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>41300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>543000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>792100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>787400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>786500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>294700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>541300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>538200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>534000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>551400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>31500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2468800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2452100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2355000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2266000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2385200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2416500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2143800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2078500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1999500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1940100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1821100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1787100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1806700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1726400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1824100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1978700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1796400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1747300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1663700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1727800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1635700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1665800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1515700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1695800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1650900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1590800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1328800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1471200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8454200</v>
+      </c>
+      <c r="E60" s="3">
         <v>8540400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8980700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8388500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8959300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8750100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8372200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7593600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7738000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7319800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7007900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6716500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7168100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6717900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6625000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6932000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6101500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6103200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6500200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6750200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6641000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6588700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6046200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5983000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6140300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6095900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5729800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5052300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5366600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10703900</v>
+      </c>
+      <c r="E61" s="3">
         <v>10348000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10258300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10349900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10263300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10066900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10608800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10593400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10645400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10588200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11741100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12463300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12422800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12902500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10023300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8092900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8637700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8122100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8134500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8019800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7914300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6956600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8218700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7712400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8426400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7660900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>8026600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>8313700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>7843500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1954400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1890900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1854600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1878900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1841800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1854500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1988200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1986100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2012000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1918000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1864200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1847300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1816700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1815100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1723600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1785600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1729600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1203300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1169200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1221200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1311300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1980400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1977100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2221800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1533600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1535500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1753700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1709200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1717100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5288,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21147000</v>
+      </c>
+      <c r="E66" s="3">
         <v>20812500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21126700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20650600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21095600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20703400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21002300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20205700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20429600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19860600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20647700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21063100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21441500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21469700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18403400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16844500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16501800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15463900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15838900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16026500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15903500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15563400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16277900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15950800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>16183300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>15375100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>15590400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>15154000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>15004000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11560900</v>
+      </c>
+      <c r="E72" s="3">
         <v>11310700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10829900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10649300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10757100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10539700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10279800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10216600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10288300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10151700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10241700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10383500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10546600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10563000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11407000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11639700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11486800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11229700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10893600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10654700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10592500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10348600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9850700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9708300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9638400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9447800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>9317400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>9256100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>9159900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2125800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2008600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1575300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1436600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1115300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1382300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1321400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1221100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1673300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1552900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1395600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1426800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1158600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2028900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2527500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2454700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2502600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2361900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2167600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2638600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2507000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2351200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2268600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2235300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2381500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2330500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2476000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>3020800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>503400</v>
+      </c>
+      <c r="E81" s="3">
         <v>733700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>429600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>141200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>465600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>510000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>303300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>167400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>378000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>151100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>88900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>67300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>216900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-618400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>383400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>453800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>535800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>440100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>267400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>431000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>448900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>330100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>284100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>367600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>305200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>238300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>275200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>323900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,97 +6803,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E83" s="3">
         <v>200700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>196000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>190000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>188900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>201300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>193800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>191300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>186500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>195400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>177100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>184800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>180500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>247200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>186200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>185000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>187400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>187300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>184200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>204800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>187600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>201800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>193400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>190700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>179700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>234700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>218300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>237300</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>211700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1441800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>922300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>344900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>158600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1045400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>368800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>266200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>110800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>424100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>543100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>930900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>540200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>324000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>582900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>171600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1046000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>447400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>646600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>271100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1034400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>191000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>850400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>82800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1156900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>477500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>351000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>253900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-171400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-318900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-164800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-142400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-167300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-305300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-146200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-96400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-219500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-88400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-75500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-116600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-210500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-217700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-175700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-309500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-159100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-119500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-104300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-315200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-114000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-122300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-136300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-272600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-541900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-284500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-379900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-303300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-161900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-144600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-174800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-294900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-642500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-152200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-788600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-182900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-80900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-82900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-132300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-281100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-246600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-163000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-362800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-117400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-99600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-354400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-157000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-267800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-134500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-279300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-120600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-136100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-3048500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,97 +7883,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-252900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-248600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-249100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-249000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-249300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-239100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-238500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-240800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-240600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-228300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-230500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-230000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-228700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-228300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-229000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-199100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-200000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-200400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-195800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-192000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-187200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-187400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-187800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-172100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-174900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-176800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-178400</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-170100</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-173300</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,271 +8249,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1032900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-495600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-127100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-746000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-213400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-789800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-237700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1333700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-205200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-950800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3377100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1535800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-255800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>62700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-897500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-429100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-579100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>68400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-998500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-102100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-382800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>72900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-912700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-225200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-92100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-389700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E101" s="3">
         <v>5900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-18300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>60000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>17100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-14400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>18600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>54700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-66200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-40700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-237900</v>
+      </c>
+      <c r="E102" s="3">
         <v>111600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>268800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>82200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-428000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-489800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-677300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-924900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1887900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-864500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-220400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-85700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3811000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1713100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>57100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-17500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-347200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-56400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>237500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-331300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-66800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>204700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>39700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>14400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>7800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>87400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-3159400</v>
       </c>
     </row>
